--- a/Document/Master Schedule/Master Schedule_Team1.xlsx
+++ b/Document/Master Schedule/Master Schedule_Team1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPTU_References\chuyenNganh6\OJT\Sprint3\Master Schedule\Document\Master Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPTU_References\chuyenNganh6\OJT\Sprint3\group1\Document\Master Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03B9C02-A9C7-49E1-BC46-3CEEA7D1448A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2600CDA3-5CB8-4EAF-A145-F321AD89E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,6 +909,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -922,25 +935,12 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2079,12 +2079,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11102</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="781050" cy="200025"/>
+    <xdr:ext cx="750899" cy="200025"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Shape 14">
@@ -2098,8 +2098,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10197465" y="659130"/>
-          <a:ext cx="781050" cy="200025"/>
+          <a:off x="9675364" y="636007"/>
+          <a:ext cx="750899" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2277,10 +2277,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>725805</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="781050" cy="200025"/>
     <xdr:sp macro="" textlink="">
@@ -2296,8 +2296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4958234" y="3684750"/>
-          <a:ext cx="775533" cy="190500"/>
+          <a:off x="9656445" y="3796665"/>
+          <a:ext cx="781050" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2343,8 +2343,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>725805</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
@@ -2362,8 +2362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4958234" y="3684750"/>
-          <a:ext cx="775533" cy="190500"/>
+          <a:off x="9656445" y="4846320"/>
+          <a:ext cx="781050" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2409,10 +2409,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="781050" cy="200025"/>
     <xdr:sp macro="" textlink="">
@@ -2428,8 +2428,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4958234" y="3684750"/>
-          <a:ext cx="775533" cy="190500"/>
+          <a:off x="9654540" y="5204460"/>
+          <a:ext cx="781050" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2475,10 +2475,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>718185</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="781050" cy="200025"/>
     <xdr:sp macro="" textlink="">
@@ -2494,8 +2494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4958234" y="3684750"/>
-          <a:ext cx="775533" cy="190500"/>
+          <a:off x="9648825" y="5554980"/>
+          <a:ext cx="781050" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2937,10 +2937,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>725805</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="781050" cy="200025"/>
     <xdr:sp macro="" textlink="">
@@ -2956,8 +2956,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4958234" y="3684750"/>
-          <a:ext cx="775533" cy="190500"/>
+          <a:off x="9656445" y="27961590"/>
+          <a:ext cx="781050" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3069,10 +3069,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>718185</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="781050" cy="200025"/>
     <xdr:sp macro="" textlink="">
@@ -3088,8 +3088,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4958234" y="3684750"/>
-          <a:ext cx="775533" cy="190500"/>
+          <a:off x="9648825" y="30746700"/>
+          <a:ext cx="781050" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -5812,8 +5812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+    <sheetView tabSelected="1" topLeftCell="B105" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5892,7 +5892,7 @@
       <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="45" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -5933,7 +5933,7 @@
       <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
@@ -5955,10 +5955,10 @@
       <c r="H3" s="13">
         <v>4</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13">
+      <c r="I3" s="13">
         <v>3</v>
       </c>
+      <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -5968,7 +5968,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
@@ -6003,7 +6003,7 @@
       <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
@@ -6034,7 +6034,7 @@
       <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
@@ -6065,7 +6065,7 @@
       <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
@@ -6096,7 +6096,7 @@
       <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
@@ -6127,7 +6127,7 @@
       <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>28</v>
       </c>
@@ -6189,7 +6189,7 @@
       <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -6230,7 +6230,7 @@
       <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="8" t="s">
         <v>31</v>
       </c>
@@ -6239,21 +6239,21 @@
       </c>
       <c r="D12" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="11">
         <v>3</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13">
-        <v>3</v>
-      </c>
+      <c r="I12" s="13">
+        <v>2</v>
+      </c>
+      <c r="J12" s="13"/>
       <c r="K12" s="13">
         <v>4</v>
       </c>
@@ -6265,7 +6265,7 @@
       <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
@@ -6296,7 +6296,7 @@
       <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
@@ -6327,7 +6327,7 @@
       <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="18" t="s">
         <v>35</v>
       </c>
@@ -6336,21 +6336,21 @@
       </c>
       <c r="D15" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="11">
         <v>3</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13">
-        <v>3</v>
-      </c>
+      <c r="I15" s="13">
+        <v>2</v>
+      </c>
+      <c r="J15" s="13"/>
       <c r="K15" s="13">
         <v>2</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="Q15" s="15"/>
     </row>
     <row r="16" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="19" t="s">
         <v>36</v>
       </c>
@@ -6371,21 +6371,21 @@
       </c>
       <c r="D16" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="11">
         <v>3</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13">
-        <v>3</v>
-      </c>
+      <c r="I16" s="13">
+        <v>2</v>
+      </c>
+      <c r="J16" s="13"/>
       <c r="K16" s="13">
         <v>2</v>
       </c>
@@ -6399,7 +6399,7 @@
       <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="19" t="s">
         <v>37</v>
       </c>
@@ -6408,21 +6408,21 @@
       </c>
       <c r="D17" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="11">
         <v>3</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13">
-        <v>3</v>
-      </c>
+      <c r="I17" s="13">
+        <v>2</v>
+      </c>
+      <c r="J17" s="13"/>
       <c r="K17" s="13">
         <v>2</v>
       </c>
@@ -6436,7 +6436,7 @@
       <c r="Q17" s="15"/>
     </row>
     <row r="18" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="19" t="s">
         <v>38</v>
       </c>
@@ -6467,7 +6467,7 @@
       <c r="Q18" s="15"/>
     </row>
     <row r="19" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="19" t="s">
         <v>39</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="Q19" s="15"/>
     </row>
     <row r="20" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="19" t="s">
         <v>40</v>
       </c>
@@ -6529,7 +6529,7 @@
       <c r="Q20" s="15"/>
     </row>
     <row r="21" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="19" t="s">
         <v>41</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="Q21" s="15"/>
     </row>
     <row r="22" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="18" t="s">
         <v>42</v>
       </c>
@@ -6591,7 +6591,7 @@
       <c r="Q22" s="15"/>
     </row>
     <row r="23" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="18" t="s">
         <v>43</v>
       </c>
@@ -6622,7 +6622,7 @@
       <c r="Q23" s="15"/>
     </row>
     <row r="24" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="18" t="s">
         <v>44</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="19" t="s">
         <v>45</v>
       </c>
@@ -6666,20 +6666,20 @@
       </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="11">
         <v>3</v>
       </c>
       <c r="F25" s="12">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" s="13">
         <v>4</v>
@@ -6692,7 +6692,7 @@
       <c r="Q25" s="15"/>
     </row>
     <row r="26" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="19" t="s">
         <v>46</v>
       </c>
@@ -6723,7 +6723,7 @@
       <c r="Q26" s="15"/>
     </row>
     <row r="27" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="19" t="s">
         <v>47</v>
       </c>
@@ -6754,7 +6754,7 @@
       <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="19" t="s">
         <v>48</v>
       </c>
@@ -6785,7 +6785,7 @@
       <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="19" t="s">
         <v>49</v>
       </c>
@@ -6816,7 +6816,7 @@
       <c r="Q29" s="15"/>
     </row>
     <row r="30" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="19" t="s">
         <v>50</v>
       </c>
@@ -6847,7 +6847,7 @@
       <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="19" t="s">
         <v>51</v>
       </c>
@@ -6878,7 +6878,7 @@
       <c r="Q31" s="15"/>
     </row>
     <row r="32" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="17" t="s">
         <v>28</v>
       </c>
@@ -6909,7 +6909,7 @@
       <c r="Q32" s="15"/>
     </row>
     <row r="33" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="51" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -6950,7 +6950,7 @@
       <c r="Q33" s="14"/>
     </row>
     <row r="34" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="8" t="s">
         <v>54</v>
       </c>
@@ -6985,7 +6985,7 @@
       <c r="Q34" s="14"/>
     </row>
     <row r="35" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="8" t="s">
         <v>55</v>
       </c>
@@ -7020,7 +7020,7 @@
       <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="8" t="s">
         <v>56</v>
       </c>
@@ -7051,7 +7051,7 @@
       <c r="Q36" s="14"/>
     </row>
     <row r="37" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="19" t="s">
         <v>57</v>
       </c>
@@ -7060,20 +7060,20 @@
       </c>
       <c r="D37" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="11">
         <v>3</v>
       </c>
       <c r="F37" s="12">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="13"/>
       <c r="J37" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" s="13">
         <v>2</v>
@@ -7088,7 +7088,7 @@
       <c r="Q37" s="14"/>
     </row>
     <row r="38" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="19" t="s">
         <v>58</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="Q38" s="14"/>
     </row>
     <row r="39" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="19" t="s">
         <v>59</v>
       </c>
@@ -7150,7 +7150,7 @@
       <c r="Q39" s="14"/>
     </row>
     <row r="40" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="19" t="s">
         <v>60</v>
       </c>
@@ -7181,7 +7181,7 @@
       <c r="Q40" s="14"/>
     </row>
     <row r="41" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="18" t="s">
         <v>61</v>
       </c>
@@ -7223,7 +7223,7 @@
       <c r="AB41" s="24"/>
     </row>
     <row r="42" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="19" t="s">
         <v>62</v>
       </c>
@@ -7254,7 +7254,7 @@
       <c r="Q42" s="14"/>
     </row>
     <row r="43" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="19" t="s">
         <v>63</v>
       </c>
@@ -7285,7 +7285,7 @@
       <c r="Q43" s="14"/>
     </row>
     <row r="44" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="8" t="s">
         <v>28</v>
       </c>
@@ -7316,7 +7316,7 @@
       <c r="Q44" s="15"/>
     </row>
     <row r="45" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="52" t="s">
         <v>64</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -7357,7 +7357,7 @@
       <c r="Q45" s="14"/>
     </row>
     <row r="46" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="8" t="s">
         <v>66</v>
       </c>
@@ -7388,7 +7388,7 @@
       <c r="Q46" s="14"/>
     </row>
     <row r="47" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="8" t="s">
         <v>67</v>
       </c>
@@ -7419,7 +7419,7 @@
       <c r="Q47" s="14"/>
     </row>
     <row r="48" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="45"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="25" t="s">
         <v>68</v>
       </c>
@@ -7450,7 +7450,7 @@
       <c r="Q48" s="14"/>
     </row>
     <row r="49" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="45"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="25" t="s">
         <v>69</v>
       </c>
@@ -7481,7 +7481,7 @@
       <c r="Q49" s="14"/>
     </row>
     <row r="50" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="25" t="s">
         <v>70</v>
       </c>
@@ -7512,7 +7512,7 @@
       <c r="Q50" s="14"/>
     </row>
     <row r="51" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="25" t="s">
         <v>71</v>
       </c>
@@ -7543,7 +7543,7 @@
       <c r="Q51" s="14"/>
     </row>
     <row r="52" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="45"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="25" t="s">
         <v>72</v>
       </c>
@@ -7574,7 +7574,7 @@
       <c r="Q52" s="14"/>
     </row>
     <row r="53" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="45"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="25" t="s">
         <v>73</v>
       </c>
@@ -7604,7 +7604,7 @@
       <c r="Q53" s="14"/>
     </row>
     <row r="54" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="26" t="s">
         <v>74</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="Q54" s="14"/>
     </row>
     <row r="55" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="45"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="26" t="s">
         <v>75</v>
       </c>
@@ -7666,7 +7666,7 @@
       <c r="Q55" s="29"/>
     </row>
     <row r="56" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="45"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="26" t="s">
         <v>76</v>
       </c>
@@ -7697,7 +7697,7 @@
       <c r="Q56" s="29"/>
     </row>
     <row r="57" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="45"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="26" t="s">
         <v>77</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="Q57" s="29"/>
     </row>
     <row r="58" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="45"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="26" t="s">
         <v>78</v>
       </c>
@@ -7759,7 +7759,7 @@
       <c r="Q58" s="29"/>
     </row>
     <row r="59" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="45"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="26" t="s">
         <v>79</v>
       </c>
@@ -7790,7 +7790,7 @@
       <c r="Q59" s="29"/>
     </row>
     <row r="60" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="45"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="26" t="s">
         <v>80</v>
       </c>
@@ -7821,7 +7821,7 @@
       <c r="Q60" s="29"/>
     </row>
     <row r="61" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="21" t="s">
         <v>28</v>
       </c>
@@ -7852,7 +7852,7 @@
       <c r="Q61" s="30"/>
     </row>
     <row r="62" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="53" t="s">
         <v>81</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -7893,7 +7893,7 @@
       <c r="Q62" s="32"/>
     </row>
     <row r="63" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="45"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="25" t="s">
         <v>83</v>
       </c>
@@ -7924,7 +7924,7 @@
       <c r="Q63" s="32"/>
     </row>
     <row r="64" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="45"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="25" t="s">
         <v>84</v>
       </c>
@@ -7933,20 +7933,20 @@
       </c>
       <c r="D64" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64" s="11">
         <v>3</v>
       </c>
       <c r="F64" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
       <c r="J64" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K64" s="31"/>
       <c r="L64" s="31">
@@ -7959,7 +7959,7 @@
       <c r="Q64" s="32"/>
     </row>
     <row r="65" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="25" t="s">
         <v>85</v>
       </c>
@@ -7990,7 +7990,7 @@
       <c r="Q65" s="32"/>
     </row>
     <row r="66" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="45"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="25" t="s">
         <v>86</v>
       </c>
@@ -8021,7 +8021,7 @@
       <c r="Q66" s="32"/>
     </row>
     <row r="67" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="45"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="25" t="s">
         <v>87</v>
       </c>
@@ -8052,7 +8052,7 @@
       <c r="Q67" s="32"/>
     </row>
     <row r="68" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="45"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="25" t="s">
         <v>88</v>
       </c>
@@ -8083,7 +8083,7 @@
       <c r="Q68" s="32"/>
     </row>
     <row r="69" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="45"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="25" t="s">
         <v>89</v>
       </c>
@@ -8114,7 +8114,7 @@
       <c r="Q69" s="32"/>
     </row>
     <row r="70" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="45"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="25" t="s">
         <v>90</v>
       </c>
@@ -8145,7 +8145,7 @@
       <c r="Q70" s="32"/>
     </row>
     <row r="71" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="46"/>
+      <c r="A71" s="40"/>
       <c r="B71" s="8" t="s">
         <v>28</v>
       </c>
@@ -8176,7 +8176,7 @@
       <c r="Q71" s="32"/>
     </row>
     <row r="72" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="38" t="s">
         <v>91</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -8217,7 +8217,7 @@
       <c r="Q72" s="32"/>
     </row>
     <row r="73" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="45"/>
+      <c r="A73" s="39"/>
       <c r="B73" s="17" t="s">
         <v>93</v>
       </c>
@@ -8226,20 +8226,20 @@
       </c>
       <c r="D73" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73" s="11">
         <v>3</v>
       </c>
       <c r="F73" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G73" s="31"/>
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
       <c r="J73" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K73" s="31"/>
       <c r="L73" s="31">
@@ -8252,7 +8252,7 @@
       <c r="Q73" s="32"/>
     </row>
     <row r="74" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="45"/>
+      <c r="A74" s="39"/>
       <c r="B74" s="17" t="s">
         <v>94</v>
       </c>
@@ -8285,7 +8285,7 @@
       <c r="Q74" s="32"/>
     </row>
     <row r="75" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="45"/>
+      <c r="A75" s="39"/>
       <c r="B75" s="17" t="s">
         <v>95</v>
       </c>
@@ -8318,7 +8318,7 @@
       <c r="Q75" s="32"/>
     </row>
     <row r="76" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45"/>
+      <c r="A76" s="39"/>
       <c r="B76" s="17" t="s">
         <v>96</v>
       </c>
@@ -8351,7 +8351,7 @@
       <c r="Q76" s="32"/>
     </row>
     <row r="77" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="45"/>
+      <c r="A77" s="39"/>
       <c r="B77" s="17" t="s">
         <v>97</v>
       </c>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="D77" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" s="11">
         <v>3</v>
       </c>
       <c r="F77" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G77" s="31"/>
       <c r="H77" s="31"/>
       <c r="I77" s="31"/>
       <c r="J77" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K77" s="31">
         <v>3</v>
@@ -8386,7 +8386,7 @@
       <c r="Q77" s="32"/>
     </row>
     <row r="78" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="45"/>
+      <c r="A78" s="39"/>
       <c r="B78" s="17" t="s">
         <v>98</v>
       </c>
@@ -8419,7 +8419,7 @@
       <c r="Q78" s="32"/>
     </row>
     <row r="79" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="45"/>
+      <c r="A79" s="39"/>
       <c r="B79" s="17" t="s">
         <v>99</v>
       </c>
@@ -8452,7 +8452,7 @@
       <c r="Q79" s="32"/>
     </row>
     <row r="80" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="45"/>
+      <c r="A80" s="39"/>
       <c r="B80" s="17" t="s">
         <v>100</v>
       </c>
@@ -8485,7 +8485,7 @@
       <c r="Q80" s="32"/>
     </row>
     <row r="81" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="45"/>
+      <c r="A81" s="39"/>
       <c r="B81" s="17" t="s">
         <v>101</v>
       </c>
@@ -8494,21 +8494,21 @@
       </c>
       <c r="D81" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E81" s="11">
         <v>3</v>
       </c>
       <c r="F81" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G81" s="31"/>
       <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31">
-        <v>3</v>
-      </c>
+      <c r="I81" s="31">
+        <v>2</v>
+      </c>
+      <c r="J81" s="31"/>
       <c r="K81" s="31">
         <v>3</v>
       </c>
@@ -8520,7 +8520,7 @@
       <c r="Q81" s="32"/>
     </row>
     <row r="82" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="45"/>
+      <c r="A82" s="39"/>
       <c r="B82" s="17" t="s">
         <v>102</v>
       </c>
@@ -8553,7 +8553,7 @@
       <c r="Q82" s="32"/>
     </row>
     <row r="83" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="45"/>
+      <c r="A83" s="39"/>
       <c r="B83" s="17" t="s">
         <v>103</v>
       </c>
@@ -8586,7 +8586,7 @@
       <c r="Q83" s="32"/>
     </row>
     <row r="84" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="45"/>
+      <c r="A84" s="39"/>
       <c r="B84" s="17" t="s">
         <v>104</v>
       </c>
@@ -8619,7 +8619,7 @@
       <c r="Q84" s="32"/>
     </row>
     <row r="85" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="45"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="17" t="s">
         <v>105</v>
       </c>
@@ -8628,20 +8628,20 @@
       </c>
       <c r="D85" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E85" s="11">
         <v>3</v>
       </c>
       <c r="F85" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G85" s="31"/>
       <c r="H85" s="31"/>
       <c r="I85" s="31"/>
       <c r="J85" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K85" s="31">
         <v>3</v>
@@ -8654,7 +8654,7 @@
       <c r="Q85" s="32"/>
     </row>
     <row r="86" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="45"/>
+      <c r="A86" s="39"/>
       <c r="B86" s="17" t="s">
         <v>106</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="Q86" s="32"/>
     </row>
     <row r="87" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="45"/>
+      <c r="A87" s="39"/>
       <c r="B87" s="17" t="s">
         <v>107</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="Q87" s="32"/>
     </row>
     <row r="88" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="45"/>
+      <c r="A88" s="39"/>
       <c r="B88" s="17" t="s">
         <v>108</v>
       </c>
@@ -8753,7 +8753,7 @@
       <c r="Q88" s="32"/>
     </row>
     <row r="89" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="45"/>
+      <c r="A89" s="39"/>
       <c r="B89" s="17" t="s">
         <v>109</v>
       </c>
@@ -8762,21 +8762,21 @@
       </c>
       <c r="D89" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E89" s="11">
         <v>3</v>
       </c>
       <c r="F89" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G89" s="31"/>
       <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="31">
-        <v>3</v>
-      </c>
+      <c r="I89" s="31">
+        <v>2</v>
+      </c>
+      <c r="J89" s="31"/>
       <c r="K89" s="31">
         <v>3</v>
       </c>
@@ -8788,7 +8788,7 @@
       <c r="Q89" s="32"/>
     </row>
     <row r="90" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="45"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="17" t="s">
         <v>110</v>
       </c>
@@ -8821,7 +8821,7 @@
       <c r="Q90" s="32"/>
     </row>
     <row r="91" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="45"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="17" t="s">
         <v>111</v>
       </c>
@@ -8854,7 +8854,7 @@
       <c r="Q91" s="32"/>
     </row>
     <row r="92" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="45"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="17" t="s">
         <v>108</v>
       </c>
@@ -8887,7 +8887,7 @@
       <c r="Q92" s="32"/>
     </row>
     <row r="93" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="45"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="17" t="s">
         <v>112</v>
       </c>
@@ -8896,20 +8896,20 @@
       </c>
       <c r="D93" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E93" s="11">
         <v>3</v>
       </c>
       <c r="F93" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G93" s="31"/>
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
       <c r="J93" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K93" s="31"/>
       <c r="L93" s="31">
@@ -8922,7 +8922,7 @@
       <c r="Q93" s="32"/>
     </row>
     <row r="94" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="45"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="17" t="s">
         <v>113</v>
       </c>
@@ -8955,7 +8955,7 @@
       <c r="Q94" s="32"/>
     </row>
     <row r="95" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="45"/>
+      <c r="A95" s="39"/>
       <c r="B95" s="17" t="s">
         <v>114</v>
       </c>
@@ -8988,7 +8988,7 @@
       <c r="Q95" s="32"/>
     </row>
     <row r="96" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="45"/>
+      <c r="A96" s="39"/>
       <c r="B96" s="17" t="s">
         <v>115</v>
       </c>
@@ -8997,20 +8997,20 @@
       </c>
       <c r="D96" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E96" s="11">
         <v>3</v>
       </c>
       <c r="F96" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G96" s="31"/>
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
       <c r="J96" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K96" s="31"/>
       <c r="L96" s="31">
@@ -9023,7 +9023,7 @@
       <c r="Q96" s="32"/>
     </row>
     <row r="97" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="45"/>
+      <c r="A97" s="39"/>
       <c r="B97" s="17" t="s">
         <v>116</v>
       </c>
@@ -9054,7 +9054,7 @@
       <c r="Q97" s="32"/>
     </row>
     <row r="98" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="45"/>
+      <c r="A98" s="39"/>
       <c r="B98" s="17" t="s">
         <v>117</v>
       </c>
@@ -9085,7 +9085,7 @@
       <c r="Q98" s="32"/>
     </row>
     <row r="99" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="45"/>
+      <c r="A99" s="39"/>
       <c r="B99" s="17" t="s">
         <v>118</v>
       </c>
@@ -9116,7 +9116,7 @@
       <c r="Q99" s="32"/>
     </row>
     <row r="100" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="45"/>
+      <c r="A100" s="39"/>
       <c r="B100" s="17" t="s">
         <v>119</v>
       </c>
@@ -9125,20 +9125,20 @@
       </c>
       <c r="D100" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E100" s="11">
         <v>3</v>
       </c>
       <c r="F100" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G100" s="31"/>
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
       <c r="J100" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K100" s="31"/>
       <c r="L100" s="31">
@@ -9151,7 +9151,7 @@
       <c r="Q100" s="32"/>
     </row>
     <row r="101" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="45"/>
+      <c r="A101" s="39"/>
       <c r="B101" s="17" t="s">
         <v>120</v>
       </c>
@@ -9182,7 +9182,7 @@
       <c r="Q101" s="32"/>
     </row>
     <row r="102" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="46"/>
+      <c r="A102" s="40"/>
       <c r="B102" s="8" t="s">
         <v>28</v>
       </c>
@@ -9213,7 +9213,7 @@
       <c r="Q102" s="32"/>
     </row>
     <row r="103" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="50" t="s">
+      <c r="A103" s="41" t="s">
         <v>121</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -9254,7 +9254,7 @@
       <c r="Q103" s="32"/>
     </row>
     <row r="104" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="45"/>
+      <c r="A104" s="39"/>
       <c r="B104" s="17" t="s">
         <v>123</v>
       </c>
@@ -9285,7 +9285,7 @@
       <c r="Q104" s="32"/>
     </row>
     <row r="105" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="45"/>
+      <c r="A105" s="39"/>
       <c r="B105" s="17" t="s">
         <v>124</v>
       </c>
@@ -9316,7 +9316,7 @@
       <c r="Q105" s="32"/>
     </row>
     <row r="106" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="45"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="17" t="s">
         <v>125</v>
       </c>
@@ -9347,7 +9347,7 @@
       <c r="Q106" s="32"/>
     </row>
     <row r="107" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="45"/>
+      <c r="A107" s="39"/>
       <c r="B107" s="17" t="s">
         <v>126</v>
       </c>
@@ -9378,7 +9378,7 @@
       <c r="Q107" s="32"/>
     </row>
     <row r="108" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="45"/>
+      <c r="A108" s="39"/>
       <c r="B108" s="17" t="s">
         <v>127</v>
       </c>
@@ -9409,7 +9409,7 @@
       <c r="Q108" s="32"/>
     </row>
     <row r="109" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="45"/>
+      <c r="A109" s="39"/>
       <c r="B109" s="17" t="s">
         <v>128</v>
       </c>
@@ -9440,7 +9440,7 @@
       <c r="Q109" s="32"/>
     </row>
     <row r="110" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="45"/>
+      <c r="A110" s="39"/>
       <c r="B110" s="17" t="s">
         <v>129</v>
       </c>
@@ -9471,7 +9471,7 @@
       <c r="Q110" s="32"/>
     </row>
     <row r="111" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="45"/>
+      <c r="A111" s="39"/>
       <c r="B111" s="17" t="s">
         <v>130</v>
       </c>
@@ -9502,7 +9502,7 @@
       <c r="Q111" s="32"/>
     </row>
     <row r="112" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="45"/>
+      <c r="A112" s="39"/>
       <c r="B112" s="17" t="s">
         <v>131</v>
       </c>
@@ -9533,7 +9533,7 @@
       <c r="Q112" s="32"/>
     </row>
     <row r="113" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="46"/>
+      <c r="A113" s="40"/>
       <c r="B113" s="8" t="s">
         <v>28</v>
       </c>
@@ -9564,25 +9564,55 @@
       <c r="Q113" s="32"/>
     </row>
     <row r="114" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C114" s="51" t="s">
+      <c r="C114" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="D114" s="52"/>
-      <c r="E114" s="53"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="44"/>
       <c r="F114" s="33" t="e">
         <f>AVERAGE(F2:F61)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="34"/>
-      <c r="L114" s="34"/>
-      <c r="M114" s="34"/>
-      <c r="N114" s="34"/>
-      <c r="O114" s="34"/>
-      <c r="P114" s="34"/>
+      <c r="G114" s="34">
+        <f>SUM(G2:G113)</f>
+        <v>35</v>
+      </c>
+      <c r="H114" s="34">
+        <f t="shared" ref="H114:P114" si="3">SUM(H2:H113)</f>
+        <v>45</v>
+      </c>
+      <c r="I114" s="34">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J114" s="34">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="K114" s="34">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="L114" s="34">
+        <f t="shared" si="3"/>
+        <v>47.5</v>
+      </c>
+      <c r="M114" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O114" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P114" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/Document/Master Schedule/Master Schedule_Team1.xlsx
+++ b/Document/Master Schedule/Master Schedule_Team1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPTU_References\chuyenNganh6\OJT\Sprint3\group1\Document\Master Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2600CDA3-5CB8-4EAF-A145-F321AD89E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F647A746-9637-4F3E-BD3A-F529BA4597EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Schedule" sheetId="1" r:id="rId1"/>
@@ -5812,31 +5812,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B105" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="5" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
-    <col min="13" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
     <col min="17" max="17" width="31" customWidth="1"/>
-    <col min="18" max="19" width="7.6640625" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" customWidth="1"/>
-    <col min="21" max="28" width="7.6640625" customWidth="1"/>
+    <col min="18" max="19" width="7.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="21" max="28" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5891,7 +5891,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>17</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="8" t="s">
         <v>20</v>
@@ -5967,7 +5967,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="8" t="s">
         <v>21</v>
@@ -6002,7 +6002,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="8" t="s">
         <v>22</v>
@@ -6033,7 +6033,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="8" t="s">
         <v>24</v>
@@ -6064,7 +6064,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="8" t="s">
         <v>25</v>
@@ -6095,7 +6095,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
       <c r="B8" s="8" t="s">
         <v>26</v>
@@ -6126,7 +6126,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
       <c r="B9" s="8" t="s">
         <v>27</v>
@@ -6157,7 +6157,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>28</v>
@@ -6188,7 +6188,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>29</v>
       </c>
@@ -6229,7 +6229,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="8" t="s">
         <v>31</v>
@@ -6242,11 +6242,11 @@
         <v>6</v>
       </c>
       <c r="E12" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -6264,7 +6264,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="8" t="s">
         <v>33</v>
@@ -6295,7 +6295,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="8" t="s">
         <v>34</v>
@@ -6326,7 +6326,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="18" t="s">
         <v>35</v>
@@ -6361,7 +6361,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="19" t="s">
         <v>36</v>
@@ -6374,11 +6374,11 @@
         <v>6</v>
       </c>
       <c r="E16" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -6398,7 +6398,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="19" t="s">
         <v>37</v>
@@ -6411,11 +6411,11 @@
         <v>6</v>
       </c>
       <c r="E17" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -6435,7 +6435,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="19" t="s">
         <v>38</v>
@@ -6466,7 +6466,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="19" t="s">
         <v>39</v>
@@ -6497,7 +6497,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="19" t="s">
         <v>40</v>
@@ -6528,7 +6528,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="19" t="s">
         <v>41</v>
@@ -6559,7 +6559,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="18" t="s">
         <v>42</v>
@@ -6590,7 +6590,7 @@
       <c r="P22" s="20"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="18" t="s">
         <v>43</v>
@@ -6621,7 +6621,7 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="18" t="s">
         <v>44</v>
@@ -6656,7 +6656,7 @@
       <c r="P24" s="20"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
       <c r="B25" s="19" t="s">
         <v>45</v>
@@ -6691,7 +6691,7 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="19" t="s">
         <v>46</v>
@@ -6722,7 +6722,7 @@
       <c r="P26" s="20"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="19" t="s">
         <v>47</v>
@@ -6753,7 +6753,7 @@
       <c r="P27" s="20"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="19" t="s">
         <v>48</v>
@@ -6784,7 +6784,7 @@
       <c r="P28" s="20"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="19" t="s">
         <v>49</v>
@@ -6815,7 +6815,7 @@
       <c r="P29" s="20"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="19" t="s">
         <v>50</v>
@@ -6846,7 +6846,7 @@
       <c r="P30" s="20"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="19" t="s">
         <v>51</v>
@@ -6877,7 +6877,7 @@
       <c r="P31" s="20"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
       <c r="B32" s="17" t="s">
         <v>28</v>
@@ -6908,7 +6908,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>52</v>
       </c>
@@ -6949,7 +6949,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="14"/>
     </row>
-    <row r="34" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="8" t="s">
         <v>54</v>
@@ -6962,11 +6962,11 @@
         <v>5</v>
       </c>
       <c r="E34" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -6984,7 +6984,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="14"/>
     </row>
-    <row r="35" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="8" t="s">
         <v>55</v>
@@ -6997,11 +6997,11 @@
         <v>5</v>
       </c>
       <c r="E35" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F35" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -7019,7 +7019,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="14"/>
     </row>
-    <row r="36" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="8" t="s">
         <v>56</v>
@@ -7050,7 +7050,7 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="14"/>
     </row>
-    <row r="37" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="19" t="s">
         <v>57</v>
@@ -7087,7 +7087,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="19" t="s">
         <v>58</v>
@@ -7118,7 +7118,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="19" t="s">
         <v>59</v>
@@ -7149,7 +7149,7 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="19" t="s">
         <v>60</v>
@@ -7180,7 +7180,7 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="18" t="s">
         <v>61</v>
@@ -7222,7 +7222,7 @@
       <c r="AA41" s="24"/>
       <c r="AB41" s="24"/>
     </row>
-    <row r="42" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="19" t="s">
         <v>62</v>
@@ -7253,7 +7253,7 @@
       <c r="P42" s="20"/>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="19" t="s">
         <v>63</v>
@@ -7284,7 +7284,7 @@
       <c r="P43" s="20"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="8" t="s">
         <v>28</v>
@@ -7315,7 +7315,7 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
         <v>64</v>
       </c>
@@ -7356,7 +7356,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="8" t="s">
         <v>66</v>
@@ -7387,7 +7387,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="8" t="s">
         <v>67</v>
@@ -7418,7 +7418,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="25" t="s">
         <v>68</v>
@@ -7449,7 +7449,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="25" t="s">
         <v>69</v>
@@ -7480,7 +7480,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="25" t="s">
         <v>70</v>
@@ -7511,7 +7511,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="25" t="s">
         <v>71</v>
@@ -7542,7 +7542,7 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="25" t="s">
         <v>72</v>
@@ -7573,7 +7573,7 @@
       <c r="P52" s="20"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="25" t="s">
         <v>73</v>
@@ -7603,7 +7603,7 @@
       <c r="P53" s="20"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="26" t="s">
         <v>74</v>
@@ -7634,7 +7634,7 @@
       <c r="P54" s="20"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="26" t="s">
         <v>75</v>
@@ -7665,7 +7665,7 @@
       <c r="P55" s="27"/>
       <c r="Q55" s="29"/>
     </row>
-    <row r="56" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="26" t="s">
         <v>76</v>
@@ -7696,7 +7696,7 @@
       <c r="P56" s="27"/>
       <c r="Q56" s="29"/>
     </row>
-    <row r="57" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="26" t="s">
         <v>77</v>
@@ -7727,7 +7727,7 @@
       <c r="P57" s="27"/>
       <c r="Q57" s="29"/>
     </row>
-    <row r="58" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="26" t="s">
         <v>78</v>
@@ -7758,7 +7758,7 @@
       <c r="P58" s="27"/>
       <c r="Q58" s="29"/>
     </row>
-    <row r="59" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="26" t="s">
         <v>79</v>
@@ -7789,7 +7789,7 @@
       <c r="P59" s="27"/>
       <c r="Q59" s="29"/>
     </row>
-    <row r="60" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="26" t="s">
         <v>80</v>
@@ -7820,7 +7820,7 @@
       <c r="P60" s="27"/>
       <c r="Q60" s="29"/>
     </row>
-    <row r="61" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="21" t="s">
         <v>28</v>
@@ -7851,7 +7851,7 @@
       <c r="P61" s="28"/>
       <c r="Q61" s="30"/>
     </row>
-    <row r="62" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
         <v>81</v>
       </c>
@@ -7892,7 +7892,7 @@
       <c r="P62" s="31"/>
       <c r="Q62" s="32"/>
     </row>
-    <row r="63" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="25" t="s">
         <v>83</v>
@@ -7923,7 +7923,7 @@
       <c r="P63" s="31"/>
       <c r="Q63" s="32"/>
     </row>
-    <row r="64" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="25" t="s">
         <v>84</v>
@@ -7958,7 +7958,7 @@
       <c r="P64" s="31"/>
       <c r="Q64" s="32"/>
     </row>
-    <row r="65" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="25" t="s">
         <v>85</v>
@@ -7989,7 +7989,7 @@
       <c r="P65" s="31"/>
       <c r="Q65" s="32"/>
     </row>
-    <row r="66" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="25" t="s">
         <v>86</v>
@@ -8020,7 +8020,7 @@
       <c r="P66" s="31"/>
       <c r="Q66" s="32"/>
     </row>
-    <row r="67" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="25" t="s">
         <v>87</v>
@@ -8051,7 +8051,7 @@
       <c r="P67" s="31"/>
       <c r="Q67" s="32"/>
     </row>
-    <row r="68" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="25" t="s">
         <v>88</v>
@@ -8082,7 +8082,7 @@
       <c r="P68" s="31"/>
       <c r="Q68" s="32"/>
     </row>
-    <row r="69" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="25" t="s">
         <v>89</v>
@@ -8113,7 +8113,7 @@
       <c r="P69" s="31"/>
       <c r="Q69" s="32"/>
     </row>
-    <row r="70" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="25" t="s">
         <v>90</v>
@@ -8144,7 +8144,7 @@
       <c r="P70" s="31"/>
       <c r="Q70" s="32"/>
     </row>
-    <row r="71" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="8" t="s">
         <v>28</v>
@@ -8175,7 +8175,7 @@
       <c r="P71" s="31"/>
       <c r="Q71" s="32"/>
     </row>
-    <row r="72" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="38" t="s">
         <v>91</v>
       </c>
@@ -8216,7 +8216,7 @@
       <c r="P72" s="31"/>
       <c r="Q72" s="32"/>
     </row>
-    <row r="73" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="17" t="s">
         <v>93</v>
@@ -8251,7 +8251,7 @@
       <c r="P73" s="31"/>
       <c r="Q73" s="32"/>
     </row>
-    <row r="74" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="17" t="s">
         <v>94</v>
@@ -8284,7 +8284,7 @@
       <c r="P74" s="31"/>
       <c r="Q74" s="32"/>
     </row>
-    <row r="75" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="17" t="s">
         <v>95</v>
@@ -8317,7 +8317,7 @@
       <c r="P75" s="31"/>
       <c r="Q75" s="32"/>
     </row>
-    <row r="76" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="17" t="s">
         <v>96</v>
@@ -8350,7 +8350,7 @@
       <c r="P76" s="31"/>
       <c r="Q76" s="32"/>
     </row>
-    <row r="77" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="17" t="s">
         <v>97</v>
@@ -8385,7 +8385,7 @@
       <c r="P77" s="31"/>
       <c r="Q77" s="32"/>
     </row>
-    <row r="78" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="17" t="s">
         <v>98</v>
@@ -8418,7 +8418,7 @@
       <c r="P78" s="31"/>
       <c r="Q78" s="32"/>
     </row>
-    <row r="79" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="17" t="s">
         <v>99</v>
@@ -8451,7 +8451,7 @@
       <c r="P79" s="31"/>
       <c r="Q79" s="32"/>
     </row>
-    <row r="80" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="17" t="s">
         <v>100</v>
@@ -8484,7 +8484,7 @@
       <c r="P80" s="31"/>
       <c r="Q80" s="32"/>
     </row>
-    <row r="81" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="17" t="s">
         <v>101</v>
@@ -8519,7 +8519,7 @@
       <c r="P81" s="31"/>
       <c r="Q81" s="32"/>
     </row>
-    <row r="82" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="17" t="s">
         <v>102</v>
@@ -8552,7 +8552,7 @@
       <c r="P82" s="31"/>
       <c r="Q82" s="32"/>
     </row>
-    <row r="83" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="17" t="s">
         <v>103</v>
@@ -8585,7 +8585,7 @@
       <c r="P83" s="31"/>
       <c r="Q83" s="32"/>
     </row>
-    <row r="84" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="17" t="s">
         <v>104</v>
@@ -8618,7 +8618,7 @@
       <c r="P84" s="31"/>
       <c r="Q84" s="32"/>
     </row>
-    <row r="85" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="17" t="s">
         <v>105</v>
@@ -8653,7 +8653,7 @@
       <c r="P85" s="31"/>
       <c r="Q85" s="32"/>
     </row>
-    <row r="86" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="17" t="s">
         <v>106</v>
@@ -8686,7 +8686,7 @@
       <c r="P86" s="31"/>
       <c r="Q86" s="32"/>
     </row>
-    <row r="87" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="17" t="s">
         <v>107</v>
@@ -8719,7 +8719,7 @@
       <c r="P87" s="31"/>
       <c r="Q87" s="32"/>
     </row>
-    <row r="88" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="17" t="s">
         <v>108</v>
@@ -8752,7 +8752,7 @@
       <c r="P88" s="31"/>
       <c r="Q88" s="32"/>
     </row>
-    <row r="89" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="17" t="s">
         <v>109</v>
@@ -8787,7 +8787,7 @@
       <c r="P89" s="31"/>
       <c r="Q89" s="32"/>
     </row>
-    <row r="90" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="17" t="s">
         <v>110</v>
@@ -8820,7 +8820,7 @@
       <c r="P90" s="31"/>
       <c r="Q90" s="32"/>
     </row>
-    <row r="91" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="17" t="s">
         <v>111</v>
@@ -8853,7 +8853,7 @@
       <c r="P91" s="31"/>
       <c r="Q91" s="32"/>
     </row>
-    <row r="92" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="17" t="s">
         <v>108</v>
@@ -8886,7 +8886,7 @@
       <c r="P92" s="31"/>
       <c r="Q92" s="32"/>
     </row>
-    <row r="93" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="17" t="s">
         <v>112</v>
@@ -8921,7 +8921,7 @@
       <c r="P93" s="31"/>
       <c r="Q93" s="32"/>
     </row>
-    <row r="94" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="17" t="s">
         <v>113</v>
@@ -8954,7 +8954,7 @@
       <c r="P94" s="31"/>
       <c r="Q94" s="32"/>
     </row>
-    <row r="95" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="17" t="s">
         <v>114</v>
@@ -8987,7 +8987,7 @@
       <c r="P95" s="31"/>
       <c r="Q95" s="32"/>
     </row>
-    <row r="96" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="17" t="s">
         <v>115</v>
@@ -9022,7 +9022,7 @@
       <c r="P96" s="31"/>
       <c r="Q96" s="32"/>
     </row>
-    <row r="97" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="17" t="s">
         <v>116</v>
@@ -9053,7 +9053,7 @@
       <c r="P97" s="31"/>
       <c r="Q97" s="32"/>
     </row>
-    <row r="98" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="17" t="s">
         <v>117</v>
@@ -9084,7 +9084,7 @@
       <c r="P98" s="31"/>
       <c r="Q98" s="32"/>
     </row>
-    <row r="99" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="17" t="s">
         <v>118</v>
@@ -9115,7 +9115,7 @@
       <c r="P99" s="31"/>
       <c r="Q99" s="32"/>
     </row>
-    <row r="100" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="17" t="s">
         <v>119</v>
@@ -9150,7 +9150,7 @@
       <c r="P100" s="31"/>
       <c r="Q100" s="32"/>
     </row>
-    <row r="101" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="17" t="s">
         <v>120</v>
@@ -9181,7 +9181,7 @@
       <c r="P101" s="31"/>
       <c r="Q101" s="32"/>
     </row>
-    <row r="102" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="8" t="s">
         <v>28</v>
@@ -9212,7 +9212,7 @@
       <c r="P102" s="31"/>
       <c r="Q102" s="32"/>
     </row>
-    <row r="103" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="41" t="s">
         <v>121</v>
       </c>
@@ -9253,7 +9253,7 @@
       <c r="P103" s="31"/>
       <c r="Q103" s="32"/>
     </row>
-    <row r="104" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="17" t="s">
         <v>123</v>
@@ -9284,7 +9284,7 @@
       <c r="P104" s="31"/>
       <c r="Q104" s="32"/>
     </row>
-    <row r="105" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
       <c r="B105" s="17" t="s">
         <v>124</v>
@@ -9315,7 +9315,7 @@
       <c r="P105" s="31"/>
       <c r="Q105" s="32"/>
     </row>
-    <row r="106" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
       <c r="B106" s="17" t="s">
         <v>125</v>
@@ -9346,7 +9346,7 @@
       <c r="P106" s="31"/>
       <c r="Q106" s="32"/>
     </row>
-    <row r="107" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="17" t="s">
         <v>126</v>
@@ -9377,7 +9377,7 @@
       <c r="P107" s="31"/>
       <c r="Q107" s="32"/>
     </row>
-    <row r="108" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="17" t="s">
         <v>127</v>
@@ -9408,7 +9408,7 @@
       <c r="P108" s="31"/>
       <c r="Q108" s="32"/>
     </row>
-    <row r="109" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="17" t="s">
         <v>128</v>
@@ -9439,7 +9439,7 @@
       <c r="P109" s="31"/>
       <c r="Q109" s="32"/>
     </row>
-    <row r="110" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
       <c r="B110" s="17" t="s">
         <v>129</v>
@@ -9470,7 +9470,7 @@
       <c r="P110" s="31"/>
       <c r="Q110" s="32"/>
     </row>
-    <row r="111" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="17" t="s">
         <v>130</v>
@@ -9501,7 +9501,7 @@
       <c r="P111" s="31"/>
       <c r="Q111" s="32"/>
     </row>
-    <row r="112" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="17" t="s">
         <v>131</v>
@@ -9532,7 +9532,7 @@
       <c r="P112" s="31"/>
       <c r="Q112" s="32"/>
     </row>
-    <row r="113" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="8" t="s">
         <v>28</v>
@@ -9563,7 +9563,7 @@
       <c r="P113" s="31"/>
       <c r="Q113" s="32"/>
     </row>
-    <row r="114" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="42" t="s">
         <v>132</v>
       </c>
@@ -9614,8 +9614,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="35" t="s">
         <v>19</v>
       </c>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="T116" s="36"/>
     </row>
-    <row r="117" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="35" t="s">
         <v>23</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="35" t="s">
         <v>32</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="35" t="s">
         <v>133</v>
       </c>
@@ -9653,2647 +9653,2647 @@
       </c>
       <c r="I119" s="36"/>
     </row>
-    <row r="120" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="35"/>
     </row>
-    <row r="121" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="35"/>
     </row>
-    <row r="122" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="35"/>
     </row>
-    <row r="123" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="35"/>
     </row>
-    <row r="124" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="35"/>
     </row>
-    <row r="125" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C125" s="35"/>
     </row>
-    <row r="126" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C126" s="35"/>
     </row>
-    <row r="127" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C127" s="35"/>
     </row>
-    <row r="128" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="35"/>
     </row>
-    <row r="129" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C129" s="35"/>
     </row>
-    <row r="130" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="35"/>
     </row>
-    <row r="131" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C131" s="35"/>
     </row>
-    <row r="132" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C132" s="35"/>
     </row>
-    <row r="133" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="35"/>
     </row>
-    <row r="134" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C134" s="35"/>
     </row>
-    <row r="135" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="35"/>
     </row>
-    <row r="136" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="35"/>
     </row>
-    <row r="137" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="35"/>
     </row>
-    <row r="138" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C138" s="35"/>
     </row>
-    <row r="139" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="35"/>
     </row>
-    <row r="140" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="35"/>
     </row>
-    <row r="141" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="35"/>
     </row>
-    <row r="142" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="35"/>
     </row>
-    <row r="143" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="35"/>
     </row>
-    <row r="144" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="35"/>
     </row>
-    <row r="145" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="35"/>
     </row>
-    <row r="146" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="35"/>
     </row>
-    <row r="147" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="35"/>
     </row>
-    <row r="148" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="35"/>
     </row>
-    <row r="149" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="35"/>
     </row>
-    <row r="150" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="35"/>
     </row>
-    <row r="151" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="35"/>
     </row>
-    <row r="152" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="35"/>
     </row>
-    <row r="153" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="35"/>
     </row>
-    <row r="154" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="35"/>
     </row>
-    <row r="155" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="35"/>
     </row>
-    <row r="156" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="35"/>
     </row>
-    <row r="157" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C157" s="35"/>
     </row>
-    <row r="158" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="35"/>
     </row>
-    <row r="159" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="35"/>
     </row>
-    <row r="160" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C160" s="35"/>
     </row>
-    <row r="161" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C161" s="35"/>
     </row>
-    <row r="162" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="35"/>
     </row>
-    <row r="163" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="35"/>
     </row>
-    <row r="164" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="35"/>
     </row>
-    <row r="165" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="35"/>
     </row>
-    <row r="166" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C166" s="35"/>
     </row>
-    <row r="167" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="35"/>
     </row>
-    <row r="168" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="35"/>
     </row>
-    <row r="169" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="35"/>
     </row>
-    <row r="170" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="35"/>
     </row>
-    <row r="171" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="35"/>
     </row>
-    <row r="172" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="35"/>
     </row>
-    <row r="173" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="35"/>
     </row>
-    <row r="174" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="35"/>
     </row>
-    <row r="175" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="35"/>
     </row>
-    <row r="176" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="35"/>
     </row>
-    <row r="177" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C177" s="35"/>
     </row>
-    <row r="178" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="35"/>
     </row>
-    <row r="179" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C179" s="35"/>
     </row>
-    <row r="180" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="35"/>
     </row>
-    <row r="181" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C181" s="35"/>
     </row>
-    <row r="182" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C182" s="35"/>
     </row>
-    <row r="183" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C183" s="35"/>
     </row>
-    <row r="184" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C184" s="35"/>
     </row>
-    <row r="185" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C185" s="35"/>
     </row>
-    <row r="186" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C186" s="35"/>
     </row>
-    <row r="187" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C187" s="35"/>
     </row>
-    <row r="188" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C188" s="35"/>
     </row>
-    <row r="189" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="35"/>
     </row>
-    <row r="190" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="35"/>
     </row>
-    <row r="191" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="35"/>
     </row>
-    <row r="192" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C192" s="35"/>
     </row>
-    <row r="193" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C193" s="35"/>
     </row>
-    <row r="194" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C194" s="35"/>
     </row>
-    <row r="195" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C195" s="35"/>
     </row>
-    <row r="196" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C196" s="35"/>
     </row>
-    <row r="197" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C197" s="35"/>
     </row>
-    <row r="198" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C198" s="35"/>
     </row>
-    <row r="199" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C199" s="35"/>
     </row>
-    <row r="200" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C200" s="35"/>
     </row>
-    <row r="201" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="35"/>
     </row>
-    <row r="202" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C202" s="35"/>
     </row>
-    <row r="203" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C203" s="35"/>
     </row>
-    <row r="204" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C204" s="35"/>
     </row>
-    <row r="205" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C205" s="35"/>
     </row>
-    <row r="206" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C206" s="35"/>
     </row>
-    <row r="207" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C207" s="35"/>
     </row>
-    <row r="208" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C208" s="35"/>
     </row>
-    <row r="209" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C209" s="35"/>
     </row>
-    <row r="210" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C210" s="35"/>
     </row>
-    <row r="211" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C211" s="35"/>
     </row>
-    <row r="212" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C212" s="35"/>
     </row>
-    <row r="213" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C213" s="35"/>
     </row>
-    <row r="214" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C214" s="35"/>
     </row>
-    <row r="215" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C215" s="35"/>
     </row>
-    <row r="216" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C216" s="35"/>
     </row>
-    <row r="217" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="35"/>
     </row>
-    <row r="218" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C218" s="35"/>
     </row>
-    <row r="219" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C219" s="35"/>
     </row>
-    <row r="220" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C220" s="35"/>
     </row>
-    <row r="221" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C221" s="35"/>
     </row>
-    <row r="222" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C222" s="35"/>
     </row>
-    <row r="223" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C223" s="35"/>
     </row>
-    <row r="224" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C224" s="35"/>
     </row>
-    <row r="225" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C225" s="35"/>
     </row>
-    <row r="226" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C226" s="35"/>
     </row>
-    <row r="227" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C227" s="35"/>
     </row>
-    <row r="228" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C228" s="35"/>
     </row>
-    <row r="229" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C229" s="35"/>
     </row>
-    <row r="230" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C230" s="35"/>
     </row>
-    <row r="231" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C231" s="35"/>
     </row>
-    <row r="232" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C232" s="35"/>
     </row>
-    <row r="233" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C233" s="35"/>
     </row>
-    <row r="234" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C234" s="35"/>
     </row>
-    <row r="235" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C235" s="35"/>
     </row>
-    <row r="236" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C236" s="35"/>
     </row>
-    <row r="237" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C237" s="35"/>
     </row>
-    <row r="238" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C238" s="35"/>
     </row>
-    <row r="239" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C239" s="35"/>
     </row>
-    <row r="240" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C240" s="35"/>
     </row>
-    <row r="241" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C241" s="35"/>
     </row>
-    <row r="242" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C242" s="35"/>
     </row>
-    <row r="243" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="35"/>
     </row>
-    <row r="244" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C244" s="35"/>
     </row>
-    <row r="245" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C245" s="35"/>
     </row>
-    <row r="246" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C246" s="35"/>
     </row>
-    <row r="247" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C247" s="35"/>
     </row>
-    <row r="248" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C248" s="35"/>
     </row>
-    <row r="249" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C249" s="35"/>
     </row>
-    <row r="250" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C250" s="35"/>
     </row>
-    <row r="251" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C251" s="35"/>
     </row>
-    <row r="252" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C252" s="35"/>
     </row>
-    <row r="253" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C253" s="35"/>
     </row>
-    <row r="254" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C254" s="35"/>
     </row>
-    <row r="255" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C255" s="35"/>
     </row>
-    <row r="256" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C256" s="35"/>
     </row>
-    <row r="257" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C257" s="35"/>
     </row>
-    <row r="258" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C258" s="35"/>
     </row>
-    <row r="259" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C259" s="35"/>
     </row>
-    <row r="260" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C260" s="35"/>
     </row>
-    <row r="261" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C261" s="35"/>
     </row>
-    <row r="262" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C262" s="35"/>
     </row>
-    <row r="263" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="35"/>
     </row>
-    <row r="264" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C264" s="35"/>
     </row>
-    <row r="265" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C265" s="35"/>
     </row>
-    <row r="266" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C266" s="35"/>
     </row>
-    <row r="267" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C267" s="35"/>
     </row>
-    <row r="268" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C268" s="35"/>
     </row>
-    <row r="269" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C269" s="35"/>
     </row>
-    <row r="270" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="35"/>
     </row>
-    <row r="271" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C271" s="35"/>
     </row>
-    <row r="272" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="35"/>
     </row>
-    <row r="273" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C273" s="35"/>
     </row>
-    <row r="274" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C274" s="35"/>
     </row>
-    <row r="275" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C275" s="35"/>
     </row>
-    <row r="276" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C276" s="35"/>
     </row>
-    <row r="277" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C277" s="35"/>
     </row>
-    <row r="278" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C278" s="35"/>
     </row>
-    <row r="279" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C279" s="35"/>
     </row>
-    <row r="280" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C280" s="35"/>
     </row>
-    <row r="281" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C281" s="35"/>
     </row>
-    <row r="282" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C282" s="35"/>
     </row>
-    <row r="283" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C283" s="35"/>
     </row>
-    <row r="284" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C284" s="35"/>
     </row>
-    <row r="285" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C285" s="35"/>
     </row>
-    <row r="286" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C286" s="35"/>
     </row>
-    <row r="287" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C287" s="35"/>
     </row>
-    <row r="288" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C288" s="35"/>
     </row>
-    <row r="289" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C289" s="35"/>
     </row>
-    <row r="290" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C290" s="35"/>
     </row>
-    <row r="291" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C291" s="35"/>
     </row>
-    <row r="292" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C292" s="35"/>
     </row>
-    <row r="293" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C293" s="35"/>
     </row>
-    <row r="294" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C294" s="35"/>
     </row>
-    <row r="295" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C295" s="35"/>
     </row>
-    <row r="296" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C296" s="35"/>
     </row>
-    <row r="297" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C297" s="35"/>
     </row>
-    <row r="298" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C298" s="35"/>
     </row>
-    <row r="299" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="35"/>
     </row>
-    <row r="300" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C300" s="35"/>
     </row>
-    <row r="301" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C301" s="35"/>
     </row>
-    <row r="302" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C302" s="35"/>
     </row>
-    <row r="303" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C303" s="35"/>
     </row>
-    <row r="304" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C304" s="35"/>
     </row>
-    <row r="305" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C305" s="35"/>
     </row>
-    <row r="306" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C306" s="35"/>
     </row>
-    <row r="307" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C307" s="35"/>
     </row>
-    <row r="308" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C308" s="35"/>
     </row>
-    <row r="309" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C309" s="35"/>
     </row>
-    <row r="310" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C310" s="35"/>
     </row>
-    <row r="311" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C311" s="35"/>
     </row>
-    <row r="312" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C312" s="35"/>
     </row>
-    <row r="313" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C313" s="35"/>
     </row>
-    <row r="314" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C314" s="35"/>
     </row>
-    <row r="315" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C315" s="35"/>
     </row>
-    <row r="316" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C316" s="35"/>
     </row>
-    <row r="317" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C317" s="35"/>
     </row>
-    <row r="318" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C318" s="35"/>
     </row>
-    <row r="319" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C319" s="35"/>
     </row>
-    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C320" s="37"/>
     </row>
-    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C321" s="37"/>
     </row>
-    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C322" s="37"/>
     </row>
-    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C323" s="37"/>
     </row>
-    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C324" s="37"/>
     </row>
-    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C325" s="37"/>
     </row>
-    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C326" s="37"/>
     </row>
-    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C327" s="37"/>
     </row>
-    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C328" s="37"/>
     </row>
-    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C329" s="37"/>
     </row>
-    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C330" s="37"/>
     </row>
-    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C331" s="37"/>
     </row>
-    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C332" s="37"/>
     </row>
-    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C333" s="37"/>
     </row>
-    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C334" s="37"/>
     </row>
-    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C335" s="37"/>
     </row>
-    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C336" s="37"/>
     </row>
-    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C337" s="37"/>
     </row>
-    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C338" s="37"/>
     </row>
-    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C339" s="37"/>
     </row>
-    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C340" s="37"/>
     </row>
-    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C341" s="37"/>
     </row>
-    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C342" s="37"/>
     </row>
-    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C343" s="37"/>
     </row>
-    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C344" s="37"/>
     </row>
-    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C345" s="37"/>
     </row>
-    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C346" s="37"/>
     </row>
-    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C347" s="37"/>
     </row>
-    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C348" s="37"/>
     </row>
-    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C349" s="37"/>
     </row>
-    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C350" s="37"/>
     </row>
-    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C351" s="37"/>
     </row>
-    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C352" s="37"/>
     </row>
-    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C353" s="37"/>
     </row>
-    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C354" s="37"/>
     </row>
-    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C355" s="37"/>
     </row>
-    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C356" s="37"/>
     </row>
-    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C357" s="37"/>
     </row>
-    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C358" s="37"/>
     </row>
-    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C359" s="37"/>
     </row>
-    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C360" s="37"/>
     </row>
-    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C361" s="37"/>
     </row>
-    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C362" s="37"/>
     </row>
-    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C363" s="37"/>
     </row>
-    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C364" s="37"/>
     </row>
-    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C365" s="37"/>
     </row>
-    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C366" s="37"/>
     </row>
-    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C367" s="37"/>
     </row>
-    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C368" s="37"/>
     </row>
-    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C369" s="37"/>
     </row>
-    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C370" s="37"/>
     </row>
-    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C371" s="37"/>
     </row>
-    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C372" s="37"/>
     </row>
-    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C373" s="37"/>
     </row>
-    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C374" s="37"/>
     </row>
-    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C375" s="37"/>
     </row>
-    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C376" s="37"/>
     </row>
-    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C377" s="37"/>
     </row>
-    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C378" s="37"/>
     </row>
-    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C379" s="37"/>
     </row>
-    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C380" s="37"/>
     </row>
-    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C381" s="37"/>
     </row>
-    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C382" s="37"/>
     </row>
-    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C383" s="37"/>
     </row>
-    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C384" s="37"/>
     </row>
-    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C385" s="37"/>
     </row>
-    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C386" s="37"/>
     </row>
-    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C387" s="37"/>
     </row>
-    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C388" s="37"/>
     </row>
-    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C389" s="37"/>
     </row>
-    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C390" s="37"/>
     </row>
-    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C391" s="37"/>
     </row>
-    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C392" s="37"/>
     </row>
-    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C393" s="37"/>
     </row>
-    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C394" s="37"/>
     </row>
-    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C395" s="37"/>
     </row>
-    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C396" s="37"/>
     </row>
-    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C397" s="37"/>
     </row>
-    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C398" s="37"/>
     </row>
-    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C399" s="37"/>
     </row>
-    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C400" s="37"/>
     </row>
-    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C401" s="37"/>
     </row>
-    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C402" s="37"/>
     </row>
-    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C403" s="37"/>
     </row>
-    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C404" s="37"/>
     </row>
-    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C405" s="37"/>
     </row>
-    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C406" s="37"/>
     </row>
-    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C407" s="37"/>
     </row>
-    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C408" s="37"/>
     </row>
-    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C409" s="37"/>
     </row>
-    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C410" s="37"/>
     </row>
-    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C411" s="37"/>
     </row>
-    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C412" s="37"/>
     </row>
-    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C413" s="37"/>
     </row>
-    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C414" s="37"/>
     </row>
-    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C415" s="37"/>
     </row>
-    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C416" s="37"/>
     </row>
-    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C417" s="37"/>
     </row>
-    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C418" s="37"/>
     </row>
-    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C419" s="37"/>
     </row>
-    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C420" s="37"/>
     </row>
-    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C421" s="37"/>
     </row>
-    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C422" s="37"/>
     </row>
-    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C423" s="37"/>
     </row>
-    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C424" s="37"/>
     </row>
-    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C425" s="37"/>
     </row>
-    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C426" s="37"/>
     </row>
-    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C427" s="37"/>
     </row>
-    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C428" s="37"/>
     </row>
-    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C429" s="37"/>
     </row>
-    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C430" s="37"/>
     </row>
-    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C431" s="37"/>
     </row>
-    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C432" s="37"/>
     </row>
-    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C433" s="37"/>
     </row>
-    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C434" s="37"/>
     </row>
-    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C435" s="37"/>
     </row>
-    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C436" s="37"/>
     </row>
-    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C437" s="37"/>
     </row>
-    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C438" s="37"/>
     </row>
-    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C439" s="37"/>
     </row>
-    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C440" s="37"/>
     </row>
-    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C441" s="37"/>
     </row>
-    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C442" s="37"/>
     </row>
-    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C443" s="37"/>
     </row>
-    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C444" s="37"/>
     </row>
-    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C445" s="37"/>
     </row>
-    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C446" s="37"/>
     </row>
-    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C447" s="37"/>
     </row>
-    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C448" s="37"/>
     </row>
-    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C449" s="37"/>
     </row>
-    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C450" s="37"/>
     </row>
-    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C451" s="37"/>
     </row>
-    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C452" s="37"/>
     </row>
-    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C453" s="37"/>
     </row>
-    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C454" s="37"/>
     </row>
-    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C455" s="37"/>
     </row>
-    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C456" s="37"/>
     </row>
-    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C457" s="37"/>
     </row>
-    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C458" s="37"/>
     </row>
-    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C459" s="37"/>
     </row>
-    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C460" s="37"/>
     </row>
-    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C461" s="37"/>
     </row>
-    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C462" s="37"/>
     </row>
-    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C463" s="37"/>
     </row>
-    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C464" s="37"/>
     </row>
-    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C465" s="37"/>
     </row>
-    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C466" s="37"/>
     </row>
-    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C467" s="37"/>
     </row>
-    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C468" s="37"/>
     </row>
-    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C469" s="37"/>
     </row>
-    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C470" s="37"/>
     </row>
-    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C471" s="37"/>
     </row>
-    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C472" s="37"/>
     </row>
-    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C473" s="37"/>
     </row>
-    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C474" s="37"/>
     </row>
-    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C475" s="37"/>
     </row>
-    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C476" s="37"/>
     </row>
-    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C477" s="37"/>
     </row>
-    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C478" s="37"/>
     </row>
-    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C479" s="37"/>
     </row>
-    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C480" s="37"/>
     </row>
-    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C481" s="37"/>
     </row>
-    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C482" s="37"/>
     </row>
-    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C483" s="37"/>
     </row>
-    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C484" s="37"/>
     </row>
-    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C485" s="37"/>
     </row>
-    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C486" s="37"/>
     </row>
-    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C487" s="37"/>
     </row>
-    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C488" s="37"/>
     </row>
-    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C489" s="37"/>
     </row>
-    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C490" s="37"/>
     </row>
-    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C491" s="37"/>
     </row>
-    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C492" s="37"/>
     </row>
-    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C493" s="37"/>
     </row>
-    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C494" s="37"/>
     </row>
-    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C495" s="37"/>
     </row>
-    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C496" s="37"/>
     </row>
-    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C497" s="37"/>
     </row>
-    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C498" s="37"/>
     </row>
-    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C499" s="37"/>
     </row>
-    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C500" s="37"/>
     </row>
-    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C501" s="37"/>
     </row>
-    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C502" s="37"/>
     </row>
-    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C503" s="37"/>
     </row>
-    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C504" s="37"/>
     </row>
-    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C505" s="37"/>
     </row>
-    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C506" s="37"/>
     </row>
-    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C507" s="37"/>
     </row>
-    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C508" s="37"/>
     </row>
-    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C509" s="37"/>
     </row>
-    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C510" s="37"/>
     </row>
-    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C511" s="37"/>
     </row>
-    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C512" s="37"/>
     </row>
-    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C513" s="37"/>
     </row>
-    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C514" s="37"/>
     </row>
-    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C515" s="37"/>
     </row>
-    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C516" s="37"/>
     </row>
-    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C517" s="37"/>
     </row>
-    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C518" s="37"/>
     </row>
-    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C519" s="37"/>
     </row>
-    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C520" s="37"/>
     </row>
-    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C521" s="37"/>
     </row>
-    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C522" s="37"/>
     </row>
-    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C523" s="37"/>
     </row>
-    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C524" s="37"/>
     </row>
-    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C525" s="37"/>
     </row>
-    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C526" s="37"/>
     </row>
-    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C527" s="37"/>
     </row>
-    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C528" s="37"/>
     </row>
-    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C529" s="37"/>
     </row>
-    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C530" s="37"/>
     </row>
-    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C531" s="37"/>
     </row>
-    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C532" s="37"/>
     </row>
-    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C533" s="37"/>
     </row>
-    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C534" s="37"/>
     </row>
-    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C535" s="37"/>
     </row>
-    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C536" s="37"/>
     </row>
-    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C537" s="37"/>
     </row>
-    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C538" s="37"/>
     </row>
-    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C539" s="37"/>
     </row>
-    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C540" s="37"/>
     </row>
-    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C541" s="37"/>
     </row>
-    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C542" s="37"/>
     </row>
-    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C543" s="37"/>
     </row>
-    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C544" s="37"/>
     </row>
-    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C545" s="37"/>
     </row>
-    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C546" s="37"/>
     </row>
-    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C547" s="37"/>
     </row>
-    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C548" s="37"/>
     </row>
-    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C549" s="37"/>
     </row>
-    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C550" s="37"/>
     </row>
-    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C551" s="37"/>
     </row>
-    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C552" s="37"/>
     </row>
-    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C553" s="37"/>
     </row>
-    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C554" s="37"/>
     </row>
-    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C555" s="37"/>
     </row>
-    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C556" s="37"/>
     </row>
-    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C557" s="37"/>
     </row>
-    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C558" s="37"/>
     </row>
-    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C559" s="37"/>
     </row>
-    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C560" s="37"/>
     </row>
-    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C561" s="37"/>
     </row>
-    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C562" s="37"/>
     </row>
-    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C563" s="37"/>
     </row>
-    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C564" s="37"/>
     </row>
-    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C565" s="37"/>
     </row>
-    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C566" s="37"/>
     </row>
-    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C567" s="37"/>
     </row>
-    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C568" s="37"/>
     </row>
-    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C569" s="37"/>
     </row>
-    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C570" s="37"/>
     </row>
-    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C571" s="37"/>
     </row>
-    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C572" s="37"/>
     </row>
-    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C573" s="37"/>
     </row>
-    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C574" s="37"/>
     </row>
-    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C575" s="37"/>
     </row>
-    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C576" s="37"/>
     </row>
-    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C577" s="37"/>
     </row>
-    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C578" s="37"/>
     </row>
-    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C579" s="37"/>
     </row>
-    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C580" s="37"/>
     </row>
-    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C581" s="37"/>
     </row>
-    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C582" s="37"/>
     </row>
-    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C583" s="37"/>
     </row>
-    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C584" s="37"/>
     </row>
-    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C585" s="37"/>
     </row>
-    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C586" s="37"/>
     </row>
-    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C587" s="37"/>
     </row>
-    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C588" s="37"/>
     </row>
-    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C589" s="37"/>
     </row>
-    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C590" s="37"/>
     </row>
-    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C591" s="37"/>
     </row>
-    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C592" s="37"/>
     </row>
-    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C593" s="37"/>
     </row>
-    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C594" s="37"/>
     </row>
-    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C595" s="37"/>
     </row>
-    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C596" s="37"/>
     </row>
-    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C597" s="37"/>
     </row>
-    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C598" s="37"/>
     </row>
-    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C599" s="37"/>
     </row>
-    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C600" s="37"/>
     </row>
-    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C601" s="37"/>
     </row>
-    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C602" s="37"/>
     </row>
-    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C603" s="37"/>
     </row>
-    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C604" s="37"/>
     </row>
-    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C605" s="37"/>
     </row>
-    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C606" s="37"/>
     </row>
-    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C607" s="37"/>
     </row>
-    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C608" s="37"/>
     </row>
-    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C609" s="37"/>
     </row>
-    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C610" s="37"/>
     </row>
-    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C611" s="37"/>
     </row>
-    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C612" s="37"/>
     </row>
-    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C613" s="37"/>
     </row>
-    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C614" s="37"/>
     </row>
-    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C615" s="37"/>
     </row>
-    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C616" s="37"/>
     </row>
-    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C617" s="37"/>
     </row>
-    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C618" s="37"/>
     </row>
-    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C619" s="37"/>
     </row>
-    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C620" s="37"/>
     </row>
-    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C621" s="37"/>
     </row>
-    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C622" s="37"/>
     </row>
-    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C623" s="37"/>
     </row>
-    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C624" s="37"/>
     </row>
-    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C625" s="37"/>
     </row>
-    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C626" s="37"/>
     </row>
-    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C627" s="37"/>
     </row>
-    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C628" s="37"/>
     </row>
-    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C629" s="37"/>
     </row>
-    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C630" s="37"/>
     </row>
-    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C631" s="37"/>
     </row>
-    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C632" s="37"/>
     </row>
-    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C633" s="37"/>
     </row>
-    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C634" s="37"/>
     </row>
-    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C635" s="37"/>
     </row>
-    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C636" s="37"/>
     </row>
-    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C637" s="37"/>
     </row>
-    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C638" s="37"/>
     </row>
-    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C639" s="37"/>
     </row>
-    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C640" s="37"/>
     </row>
-    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C641" s="37"/>
     </row>
-    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C642" s="37"/>
     </row>
-    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C643" s="37"/>
     </row>
-    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C644" s="37"/>
     </row>
-    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C645" s="37"/>
     </row>
-    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C646" s="37"/>
     </row>
-    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C647" s="37"/>
     </row>
-    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C648" s="37"/>
     </row>
-    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C649" s="37"/>
     </row>
-    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C650" s="37"/>
     </row>
-    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C651" s="37"/>
     </row>
-    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C652" s="37"/>
     </row>
-    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C653" s="37"/>
     </row>
-    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C654" s="37"/>
     </row>
-    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C655" s="37"/>
     </row>
-    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C656" s="37"/>
     </row>
-    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C657" s="37"/>
     </row>
-    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C658" s="37"/>
     </row>
-    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C659" s="37"/>
     </row>
-    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C660" s="37"/>
     </row>
-    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C661" s="37"/>
     </row>
-    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C662" s="37"/>
     </row>
-    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C663" s="37"/>
     </row>
-    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C664" s="37"/>
     </row>
-    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C665" s="37"/>
     </row>
-    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C666" s="37"/>
     </row>
-    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C667" s="37"/>
     </row>
-    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C668" s="37"/>
     </row>
-    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C669" s="37"/>
     </row>
-    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C670" s="37"/>
     </row>
-    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C671" s="37"/>
     </row>
-    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C672" s="37"/>
     </row>
-    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C673" s="37"/>
     </row>
-    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C674" s="37"/>
     </row>
-    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C675" s="37"/>
     </row>
-    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C676" s="37"/>
     </row>
-    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C677" s="37"/>
     </row>
-    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C678" s="37"/>
     </row>
-    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C679" s="37"/>
     </row>
-    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C680" s="37"/>
     </row>
-    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C681" s="37"/>
     </row>
-    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C682" s="37"/>
     </row>
-    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C683" s="37"/>
     </row>
-    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C684" s="37"/>
     </row>
-    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C685" s="37"/>
     </row>
-    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C686" s="37"/>
     </row>
-    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C687" s="37"/>
     </row>
-    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C688" s="37"/>
     </row>
-    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C689" s="37"/>
     </row>
-    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C690" s="37"/>
     </row>
-    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C691" s="37"/>
     </row>
-    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C692" s="37"/>
     </row>
-    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C693" s="37"/>
     </row>
-    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C694" s="37"/>
     </row>
-    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C695" s="37"/>
     </row>
-    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C696" s="37"/>
     </row>
-    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C697" s="37"/>
     </row>
-    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C698" s="37"/>
     </row>
-    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C699" s="37"/>
     </row>
-    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C700" s="37"/>
     </row>
-    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C701" s="37"/>
     </row>
-    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C702" s="37"/>
     </row>
-    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C703" s="37"/>
     </row>
-    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C704" s="37"/>
     </row>
-    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C705" s="37"/>
     </row>
-    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C706" s="37"/>
     </row>
-    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C707" s="37"/>
     </row>
-    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C708" s="37"/>
     </row>
-    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C709" s="37"/>
     </row>
-    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C710" s="37"/>
     </row>
-    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C711" s="37"/>
     </row>
-    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C712" s="37"/>
     </row>
-    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C713" s="37"/>
     </row>
-    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C714" s="37"/>
     </row>
-    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C715" s="37"/>
     </row>
-    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C716" s="37"/>
     </row>
-    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C717" s="37"/>
     </row>
-    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C718" s="37"/>
     </row>
-    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C719" s="37"/>
     </row>
-    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C720" s="37"/>
     </row>
-    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C721" s="37"/>
     </row>
-    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C722" s="37"/>
     </row>
-    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C723" s="37"/>
     </row>
-    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C724" s="37"/>
     </row>
-    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C725" s="37"/>
     </row>
-    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C726" s="37"/>
     </row>
-    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C727" s="37"/>
     </row>
-    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C728" s="37"/>
     </row>
-    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C729" s="37"/>
     </row>
-    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C730" s="37"/>
     </row>
-    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C731" s="37"/>
     </row>
-    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C732" s="37"/>
     </row>
-    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C733" s="37"/>
     </row>
-    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C734" s="37"/>
     </row>
-    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C735" s="37"/>
     </row>
-    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C736" s="37"/>
     </row>
-    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C737" s="37"/>
     </row>
-    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C738" s="37"/>
     </row>
-    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C739" s="37"/>
     </row>
-    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C740" s="37"/>
     </row>
-    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C741" s="37"/>
     </row>
-    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C742" s="37"/>
     </row>
-    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C743" s="37"/>
     </row>
-    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C744" s="37"/>
     </row>
-    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C745" s="37"/>
     </row>
-    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C746" s="37"/>
     </row>
-    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C747" s="37"/>
     </row>
-    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C748" s="37"/>
     </row>
-    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C749" s="37"/>
     </row>
-    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C750" s="37"/>
     </row>
-    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C751" s="37"/>
     </row>
-    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C752" s="37"/>
     </row>
-    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C753" s="37"/>
     </row>
-    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C754" s="37"/>
     </row>
-    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C755" s="37"/>
     </row>
-    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C756" s="37"/>
     </row>
-    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C757" s="37"/>
     </row>
-    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C758" s="37"/>
     </row>
-    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C759" s="37"/>
     </row>
-    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C760" s="37"/>
     </row>
-    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C761" s="37"/>
     </row>
-    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C762" s="37"/>
     </row>
-    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C763" s="37"/>
     </row>
-    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C764" s="37"/>
     </row>
-    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C765" s="37"/>
     </row>
-    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C766" s="37"/>
     </row>
-    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C767" s="37"/>
     </row>
-    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C768" s="37"/>
     </row>
-    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C769" s="37"/>
     </row>
-    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C770" s="37"/>
     </row>
-    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C771" s="37"/>
     </row>
-    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C772" s="37"/>
     </row>
-    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C773" s="37"/>
     </row>
-    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C774" s="37"/>
     </row>
-    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C775" s="37"/>
     </row>
-    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C776" s="37"/>
     </row>
-    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C777" s="37"/>
     </row>
-    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C778" s="37"/>
     </row>
-    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C779" s="37"/>
     </row>
-    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C780" s="37"/>
     </row>
-    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C781" s="37"/>
     </row>
-    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C782" s="37"/>
     </row>
-    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C783" s="37"/>
     </row>
-    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C784" s="37"/>
     </row>
-    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C785" s="37"/>
     </row>
-    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C786" s="37"/>
     </row>
-    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C787" s="37"/>
     </row>
-    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C788" s="37"/>
     </row>
-    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C789" s="37"/>
     </row>
-    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C790" s="37"/>
     </row>
-    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C791" s="37"/>
     </row>
-    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C792" s="37"/>
     </row>
-    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C793" s="37"/>
     </row>
-    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C794" s="37"/>
     </row>
-    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C795" s="37"/>
     </row>
-    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C796" s="37"/>
     </row>
-    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C797" s="37"/>
     </row>
-    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C798" s="37"/>
     </row>
-    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C799" s="37"/>
     </row>
-    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C800" s="37"/>
     </row>
-    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C801" s="37"/>
     </row>
-    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C802" s="37"/>
     </row>
-    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C803" s="37"/>
     </row>
-    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C804" s="37"/>
     </row>
-    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C805" s="37"/>
     </row>
-    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C806" s="37"/>
     </row>
-    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C807" s="37"/>
     </row>
-    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C808" s="37"/>
     </row>
-    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C809" s="37"/>
     </row>
-    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C810" s="37"/>
     </row>
-    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C811" s="37"/>
     </row>
-    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C812" s="37"/>
     </row>
-    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C813" s="37"/>
     </row>
-    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C814" s="37"/>
     </row>
-    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C815" s="37"/>
     </row>
-    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C816" s="37"/>
     </row>
-    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C817" s="37"/>
     </row>
-    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C818" s="37"/>
     </row>
-    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C819" s="37"/>
     </row>
-    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C820" s="37"/>
     </row>
-    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C821" s="37"/>
     </row>
-    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C822" s="37"/>
     </row>
-    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C823" s="37"/>
     </row>
-    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C824" s="37"/>
     </row>
-    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C825" s="37"/>
     </row>
-    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C826" s="37"/>
     </row>
-    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C827" s="37"/>
     </row>
-    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C828" s="37"/>
     </row>
-    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C829" s="37"/>
     </row>
-    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C830" s="37"/>
     </row>
-    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C831" s="37"/>
     </row>
-    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C832" s="37"/>
     </row>
-    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C833" s="37"/>
     </row>
-    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C834" s="37"/>
     </row>
-    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C835" s="37"/>
     </row>
-    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C836" s="37"/>
     </row>
-    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C837" s="37"/>
     </row>
-    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C838" s="37"/>
     </row>
-    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C839" s="37"/>
     </row>
-    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C840" s="37"/>
     </row>
-    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C841" s="37"/>
     </row>
-    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C842" s="37"/>
     </row>
-    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C843" s="37"/>
     </row>
-    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C844" s="37"/>
     </row>
-    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C845" s="37"/>
     </row>
-    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C846" s="37"/>
     </row>
-    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C847" s="37"/>
     </row>
-    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C848" s="37"/>
     </row>
-    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C849" s="37"/>
     </row>
-    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C850" s="37"/>
     </row>
-    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C851" s="37"/>
     </row>
-    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C852" s="37"/>
     </row>
-    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C853" s="37"/>
     </row>
-    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C854" s="37"/>
     </row>
-    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C855" s="37"/>
     </row>
-    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C856" s="37"/>
     </row>
-    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C857" s="37"/>
     </row>
-    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C858" s="37"/>
     </row>
-    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C859" s="37"/>
     </row>
-    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C860" s="37"/>
     </row>
-    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C861" s="37"/>
     </row>
-    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C862" s="37"/>
     </row>
-    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C863" s="37"/>
     </row>
-    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C864" s="37"/>
     </row>
-    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C865" s="37"/>
     </row>
-    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C866" s="37"/>
     </row>
-    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C867" s="37"/>
     </row>
-    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C868" s="37"/>
     </row>
-    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C869" s="37"/>
     </row>
-    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C870" s="37"/>
     </row>
-    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C871" s="37"/>
     </row>
-    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C872" s="37"/>
     </row>
-    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C873" s="37"/>
     </row>
-    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C874" s="37"/>
     </row>
-    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C875" s="37"/>
     </row>
-    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C876" s="37"/>
     </row>
-    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C877" s="37"/>
     </row>
-    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C878" s="37"/>
     </row>
-    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C879" s="37"/>
     </row>
-    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C880" s="37"/>
     </row>
-    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C881" s="37"/>
     </row>
-    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C882" s="37"/>
     </row>
-    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C883" s="37"/>
     </row>
-    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C884" s="37"/>
     </row>
-    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C885" s="37"/>
     </row>
-    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C886" s="37"/>
     </row>
-    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C887" s="37"/>
     </row>
-    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C888" s="37"/>
     </row>
-    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C889" s="37"/>
     </row>
-    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C890" s="37"/>
     </row>
-    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C891" s="37"/>
     </row>
-    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C892" s="37"/>
     </row>
-    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C893" s="37"/>
     </row>
-    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C894" s="37"/>
     </row>
-    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C895" s="37"/>
     </row>
-    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C896" s="37"/>
     </row>
-    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C897" s="37"/>
     </row>
-    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C898" s="37"/>
     </row>
-    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C899" s="37"/>
     </row>
-    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C900" s="37"/>
     </row>
-    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C901" s="37"/>
     </row>
-    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C902" s="37"/>
     </row>
-    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C903" s="37"/>
     </row>
-    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C904" s="37"/>
     </row>
-    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C905" s="37"/>
     </row>
-    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C906" s="37"/>
     </row>
-    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C907" s="37"/>
     </row>
-    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C908" s="37"/>
     </row>
-    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C909" s="37"/>
     </row>
-    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C910" s="37"/>
     </row>
-    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C911" s="37"/>
     </row>
-    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C912" s="37"/>
     </row>
-    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C913" s="37"/>
     </row>
-    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C914" s="37"/>
     </row>
-    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C915" s="37"/>
     </row>
-    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C916" s="37"/>
     </row>
-    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C917" s="37"/>
     </row>
-    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C918" s="37"/>
     </row>
-    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C919" s="37"/>
     </row>
-    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C920" s="37"/>
     </row>
-    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C921" s="37"/>
     </row>
-    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C922" s="37"/>
     </row>
-    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C923" s="37"/>
     </row>
-    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C924" s="37"/>
     </row>
-    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C925" s="37"/>
     </row>
-    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C926" s="37"/>
     </row>
-    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C927" s="37"/>
     </row>
-    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C928" s="37"/>
     </row>
-    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C929" s="37"/>
     </row>
-    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C930" s="37"/>
     </row>
-    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C931" s="37"/>
     </row>
-    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C932" s="37"/>
     </row>
-    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C933" s="37"/>
     </row>
-    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C934" s="37"/>
     </row>
-    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C935" s="37"/>
     </row>
-    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C936" s="37"/>
     </row>
-    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C937" s="37"/>
     </row>
-    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C938" s="37"/>
     </row>
-    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C939" s="37"/>
     </row>
-    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C940" s="37"/>
     </row>
-    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C941" s="37"/>
     </row>
-    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C942" s="37"/>
     </row>
-    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C943" s="37"/>
     </row>
-    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C944" s="37"/>
     </row>
-    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C945" s="37"/>
     </row>
-    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C946" s="37"/>
     </row>
-    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C947" s="37"/>
     </row>
-    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C948" s="37"/>
     </row>
-    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C949" s="37"/>
     </row>
-    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C950" s="37"/>
     </row>
-    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C951" s="37"/>
     </row>
-    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C952" s="37"/>
     </row>
-    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C953" s="37"/>
     </row>
-    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C954" s="37"/>
     </row>
-    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C955" s="37"/>
     </row>
-    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C956" s="37"/>
     </row>
-    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C957" s="37"/>
     </row>
-    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C958" s="37"/>
     </row>
-    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C959" s="37"/>
     </row>
-    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C960" s="37"/>
     </row>
-    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C961" s="37"/>
     </row>
-    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C962" s="37"/>
     </row>
-    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C963" s="37"/>
     </row>
-    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C964" s="37"/>
     </row>
-    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C965" s="37"/>
     </row>
-    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C966" s="37"/>
     </row>
-    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C967" s="37"/>
     </row>
-    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C968" s="37"/>
     </row>
-    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C969" s="37"/>
     </row>
-    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C970" s="37"/>
     </row>
-    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C971" s="37"/>
     </row>
-    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C972" s="37"/>
     </row>
-    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C973" s="37"/>
     </row>
-    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C974" s="37"/>
     </row>
-    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C975" s="37"/>
     </row>
-    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C976" s="37"/>
     </row>
-    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C977" s="37"/>
     </row>
-    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C978" s="37"/>
     </row>
-    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C979" s="37"/>
     </row>
-    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C980" s="37"/>
     </row>
-    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C981" s="37"/>
     </row>
-    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C982" s="37"/>
     </row>
-    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C983" s="37"/>
     </row>
-    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C984" s="37"/>
     </row>
-    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C985" s="37"/>
     </row>
-    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C986" s="37"/>
     </row>
-    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C987" s="37"/>
     </row>
-    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C988" s="37"/>
     </row>
-    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C989" s="37"/>
     </row>
-    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C990" s="37"/>
     </row>
-    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C991" s="37"/>
     </row>
-    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C992" s="37"/>
     </row>
-    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C993" s="37"/>
     </row>
-    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C994" s="37"/>
     </row>
-    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C995" s="37"/>
     </row>
-    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C996" s="37"/>
     </row>
-    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C997" s="37"/>
     </row>
-    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C998" s="37"/>
     </row>
-    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C999" s="37"/>
     </row>
-    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1000" s="37"/>
     </row>
   </sheetData>

--- a/Document/Master Schedule/Master Schedule_Team1.xlsx
+++ b/Document/Master Schedule/Master Schedule_Team1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPTU_References\chuyenNganh6\OJT\Sprint3\group1\Document\Master Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F647A746-9637-4F3E-BD3A-F529BA4597EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584335F6-3071-44AE-981C-3BB6BEAACF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5812,8 +5812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7063,11 +7063,11 @@
         <v>6</v>
       </c>
       <c r="E37" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
@@ -7936,11 +7936,11 @@
         <v>5</v>
       </c>
       <c r="E64" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F64" s="12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
@@ -8264,11 +8264,11 @@
         <v>2.5</v>
       </c>
       <c r="E74" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G74" s="31"/>
       <c r="H74" s="31"/>
@@ -8297,11 +8297,11 @@
         <v>2.5</v>
       </c>
       <c r="E75" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G75" s="31"/>
       <c r="H75" s="31"/>
@@ -8330,11 +8330,11 @@
         <v>2.5</v>
       </c>
       <c r="E76" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G76" s="31"/>
       <c r="H76" s="31"/>
@@ -8398,11 +8398,11 @@
         <v>2.5</v>
       </c>
       <c r="E78" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G78" s="31"/>
       <c r="H78" s="31"/>
@@ -8431,11 +8431,11 @@
         <v>2.5</v>
       </c>
       <c r="E79" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G79" s="31"/>
       <c r="H79" s="31"/>
@@ -8464,11 +8464,11 @@
         <v>2.5</v>
       </c>
       <c r="E80" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G80" s="31"/>
       <c r="H80" s="31"/>
@@ -8532,11 +8532,11 @@
         <v>2.5</v>
       </c>
       <c r="E82" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G82" s="31"/>
       <c r="H82" s="31"/>
@@ -8565,11 +8565,11 @@
         <v>2.5</v>
       </c>
       <c r="E83" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G83" s="31"/>
       <c r="H83" s="31"/>
@@ -8598,11 +8598,11 @@
         <v>2.5</v>
       </c>
       <c r="E84" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G84" s="31"/>
       <c r="H84" s="31"/>
@@ -8666,11 +8666,11 @@
         <v>2.5</v>
       </c>
       <c r="E86" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F86" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G86" s="31"/>
       <c r="H86" s="31"/>
@@ -8699,11 +8699,11 @@
         <v>2.5</v>
       </c>
       <c r="E87" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G87" s="31"/>
       <c r="H87" s="31"/>
@@ -8732,11 +8732,11 @@
         <v>2.5</v>
       </c>
       <c r="E88" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F88" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G88" s="31"/>
       <c r="H88" s="31"/>
@@ -8765,11 +8765,11 @@
         <v>5</v>
       </c>
       <c r="E89" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F89" s="12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G89" s="31"/>
       <c r="H89" s="31"/>
@@ -8800,11 +8800,11 @@
         <v>2.5</v>
       </c>
       <c r="E90" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G90" s="31"/>
       <c r="H90" s="31"/>
@@ -8833,11 +8833,11 @@
         <v>2.5</v>
       </c>
       <c r="E91" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F91" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G91" s="31"/>
       <c r="H91" s="31"/>
@@ -8866,11 +8866,11 @@
         <v>2.5</v>
       </c>
       <c r="E92" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G92" s="31"/>
       <c r="H92" s="31"/>
@@ -8899,11 +8899,11 @@
         <v>5</v>
       </c>
       <c r="E93" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" s="12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G93" s="31"/>
       <c r="H93" s="31"/>
@@ -8934,11 +8934,11 @@
         <v>2.5</v>
       </c>
       <c r="E94" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G94" s="31"/>
       <c r="H94" s="31"/>
@@ -8967,11 +8967,11 @@
         <v>2.5</v>
       </c>
       <c r="E95" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G95" s="31"/>
       <c r="H95" s="31"/>
@@ -9000,11 +9000,11 @@
         <v>5</v>
       </c>
       <c r="E96" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F96" s="12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G96" s="31"/>
       <c r="H96" s="31"/>
@@ -9128,11 +9128,11 @@
         <v>5</v>
       </c>
       <c r="E100" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F100" s="12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G100" s="31"/>
       <c r="H100" s="31"/>

--- a/Document/Master Schedule/Master Schedule_Team1.xlsx
+++ b/Document/Master Schedule/Master Schedule_Team1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FPTU_References\chuyenNganh6\OJT\Sprint3\group1\Document\Master Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2600CDA3-5CB8-4EAF-A145-F321AD89E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584335F6-3071-44AE-981C-3BB6BEAACF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Schedule" sheetId="1" r:id="rId1"/>
@@ -5812,31 +5812,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B105" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="5" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
-    <col min="13" max="15" width="9.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
     <col min="17" max="17" width="31" customWidth="1"/>
-    <col min="18" max="19" width="7.6640625" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" customWidth="1"/>
-    <col min="21" max="28" width="7.6640625" customWidth="1"/>
+    <col min="18" max="19" width="7.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="21" max="28" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5891,7 +5891,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>17</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="8" t="s">
         <v>20</v>
@@ -5967,7 +5967,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="8" t="s">
         <v>21</v>
@@ -6002,7 +6002,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="8" t="s">
         <v>22</v>
@@ -6033,7 +6033,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="8" t="s">
         <v>24</v>
@@ -6064,7 +6064,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="8" t="s">
         <v>25</v>
@@ -6095,7 +6095,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
       <c r="B8" s="8" t="s">
         <v>26</v>
@@ -6126,7 +6126,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
       <c r="B9" s="8" t="s">
         <v>27</v>
@@ -6157,7 +6157,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
       <c r="B10" s="16" t="s">
         <v>28</v>
@@ -6188,7 +6188,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>29</v>
       </c>
@@ -6229,7 +6229,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="8" t="s">
         <v>31</v>
@@ -6242,11 +6242,11 @@
         <v>6</v>
       </c>
       <c r="E12" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -6264,7 +6264,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="8" t="s">
         <v>33</v>
@@ -6295,7 +6295,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="8" t="s">
         <v>34</v>
@@ -6326,7 +6326,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="18" t="s">
         <v>35</v>
@@ -6361,7 +6361,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="19" t="s">
         <v>36</v>
@@ -6374,11 +6374,11 @@
         <v>6</v>
       </c>
       <c r="E16" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -6398,7 +6398,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="19" t="s">
         <v>37</v>
@@ -6411,11 +6411,11 @@
         <v>6</v>
       </c>
       <c r="E17" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
@@ -6435,7 +6435,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="19" t="s">
         <v>38</v>
@@ -6466,7 +6466,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="19" t="s">
         <v>39</v>
@@ -6497,7 +6497,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="19" t="s">
         <v>40</v>
@@ -6528,7 +6528,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="19" t="s">
         <v>41</v>
@@ -6559,7 +6559,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="18" t="s">
         <v>42</v>
@@ -6590,7 +6590,7 @@
       <c r="P22" s="20"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="18" t="s">
         <v>43</v>
@@ -6621,7 +6621,7 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="18" t="s">
         <v>44</v>
@@ -6656,7 +6656,7 @@
       <c r="P24" s="20"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
       <c r="B25" s="19" t="s">
         <v>45</v>
@@ -6691,7 +6691,7 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="19" t="s">
         <v>46</v>
@@ -6722,7 +6722,7 @@
       <c r="P26" s="20"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="19" t="s">
         <v>47</v>
@@ -6753,7 +6753,7 @@
       <c r="P27" s="20"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="19" t="s">
         <v>48</v>
@@ -6784,7 +6784,7 @@
       <c r="P28" s="20"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="19" t="s">
         <v>49</v>
@@ -6815,7 +6815,7 @@
       <c r="P29" s="20"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="19" t="s">
         <v>50</v>
@@ -6846,7 +6846,7 @@
       <c r="P30" s="20"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="19" t="s">
         <v>51</v>
@@ -6877,7 +6877,7 @@
       <c r="P31" s="20"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
       <c r="B32" s="17" t="s">
         <v>28</v>
@@ -6908,7 +6908,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="51" t="s">
         <v>52</v>
       </c>
@@ -6949,7 +6949,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="14"/>
     </row>
-    <row r="34" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="8" t="s">
         <v>54</v>
@@ -6962,11 +6962,11 @@
         <v>5</v>
       </c>
       <c r="E34" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -6984,7 +6984,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="14"/>
     </row>
-    <row r="35" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="8" t="s">
         <v>55</v>
@@ -6997,11 +6997,11 @@
         <v>5</v>
       </c>
       <c r="E35" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F35" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -7019,7 +7019,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="14"/>
     </row>
-    <row r="36" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="8" t="s">
         <v>56</v>
@@ -7050,7 +7050,7 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="14"/>
     </row>
-    <row r="37" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="19" t="s">
         <v>57</v>
@@ -7063,11 +7063,11 @@
         <v>6</v>
       </c>
       <c r="E37" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37" s="12">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
@@ -7087,7 +7087,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="19" t="s">
         <v>58</v>
@@ -7118,7 +7118,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="19" t="s">
         <v>59</v>
@@ -7149,7 +7149,7 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="19" t="s">
         <v>60</v>
@@ -7180,7 +7180,7 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="18" t="s">
         <v>61</v>
@@ -7222,7 +7222,7 @@
       <c r="AA41" s="24"/>
       <c r="AB41" s="24"/>
     </row>
-    <row r="42" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="19" t="s">
         <v>62</v>
@@ -7253,7 +7253,7 @@
       <c r="P42" s="20"/>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="19" t="s">
         <v>63</v>
@@ -7284,7 +7284,7 @@
       <c r="P43" s="20"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="8" t="s">
         <v>28</v>
@@ -7315,7 +7315,7 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
         <v>64</v>
       </c>
@@ -7356,7 +7356,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="39"/>
       <c r="B46" s="8" t="s">
         <v>66</v>
@@ -7387,7 +7387,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="8" t="s">
         <v>67</v>
@@ -7418,7 +7418,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="25" t="s">
         <v>68</v>
@@ -7449,7 +7449,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="25" t="s">
         <v>69</v>
@@ -7480,7 +7480,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="25" t="s">
         <v>70</v>
@@ -7511,7 +7511,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="25" t="s">
         <v>71</v>
@@ -7542,7 +7542,7 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="25" t="s">
         <v>72</v>
@@ -7573,7 +7573,7 @@
       <c r="P52" s="20"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="25" t="s">
         <v>73</v>
@@ -7603,7 +7603,7 @@
       <c r="P53" s="20"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="26" t="s">
         <v>74</v>
@@ -7634,7 +7634,7 @@
       <c r="P54" s="20"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="26" t="s">
         <v>75</v>
@@ -7665,7 +7665,7 @@
       <c r="P55" s="27"/>
       <c r="Q55" s="29"/>
     </row>
-    <row r="56" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="26" t="s">
         <v>76</v>
@@ -7696,7 +7696,7 @@
       <c r="P56" s="27"/>
       <c r="Q56" s="29"/>
     </row>
-    <row r="57" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="26" t="s">
         <v>77</v>
@@ -7727,7 +7727,7 @@
       <c r="P57" s="27"/>
       <c r="Q57" s="29"/>
     </row>
-    <row r="58" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="26" t="s">
         <v>78</v>
@@ -7758,7 +7758,7 @@
       <c r="P58" s="27"/>
       <c r="Q58" s="29"/>
     </row>
-    <row r="59" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="26" t="s">
         <v>79</v>
@@ -7789,7 +7789,7 @@
       <c r="P59" s="27"/>
       <c r="Q59" s="29"/>
     </row>
-    <row r="60" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="26" t="s">
         <v>80</v>
@@ -7820,7 +7820,7 @@
       <c r="P60" s="27"/>
       <c r="Q60" s="29"/>
     </row>
-    <row r="61" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="21" t="s">
         <v>28</v>
@@ -7851,7 +7851,7 @@
       <c r="P61" s="28"/>
       <c r="Q61" s="30"/>
     </row>
-    <row r="62" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
         <v>81</v>
       </c>
@@ -7892,7 +7892,7 @@
       <c r="P62" s="31"/>
       <c r="Q62" s="32"/>
     </row>
-    <row r="63" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="25" t="s">
         <v>83</v>
@@ -7923,7 +7923,7 @@
       <c r="P63" s="31"/>
       <c r="Q63" s="32"/>
     </row>
-    <row r="64" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="25" t="s">
         <v>84</v>
@@ -7936,11 +7936,11 @@
         <v>5</v>
       </c>
       <c r="E64" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F64" s="12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
@@ -7958,7 +7958,7 @@
       <c r="P64" s="31"/>
       <c r="Q64" s="32"/>
     </row>
-    <row r="65" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="25" t="s">
         <v>85</v>
@@ -7989,7 +7989,7 @@
       <c r="P65" s="31"/>
       <c r="Q65" s="32"/>
     </row>
-    <row r="66" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="25" t="s">
         <v>86</v>
@@ -8020,7 +8020,7 @@
       <c r="P66" s="31"/>
       <c r="Q66" s="32"/>
     </row>
-    <row r="67" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="25" t="s">
         <v>87</v>
@@ -8051,7 +8051,7 @@
       <c r="P67" s="31"/>
       <c r="Q67" s="32"/>
     </row>
-    <row r="68" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="25" t="s">
         <v>88</v>
@@ -8082,7 +8082,7 @@
       <c r="P68" s="31"/>
       <c r="Q68" s="32"/>
     </row>
-    <row r="69" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="25" t="s">
         <v>89</v>
@@ -8113,7 +8113,7 @@
       <c r="P69" s="31"/>
       <c r="Q69" s="32"/>
     </row>
-    <row r="70" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="25" t="s">
         <v>90</v>
@@ -8144,7 +8144,7 @@
       <c r="P70" s="31"/>
       <c r="Q70" s="32"/>
     </row>
-    <row r="71" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="8" t="s">
         <v>28</v>
@@ -8175,7 +8175,7 @@
       <c r="P71" s="31"/>
       <c r="Q71" s="32"/>
     </row>
-    <row r="72" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="38" t="s">
         <v>91</v>
       </c>
@@ -8216,7 +8216,7 @@
       <c r="P72" s="31"/>
       <c r="Q72" s="32"/>
     </row>
-    <row r="73" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="17" t="s">
         <v>93</v>
@@ -8251,7 +8251,7 @@
       <c r="P73" s="31"/>
       <c r="Q73" s="32"/>
     </row>
-    <row r="74" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="17" t="s">
         <v>94</v>
@@ -8264,11 +8264,11 @@
         <v>2.5</v>
       </c>
       <c r="E74" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G74" s="31"/>
       <c r="H74" s="31"/>
@@ -8284,7 +8284,7 @@
       <c r="P74" s="31"/>
       <c r="Q74" s="32"/>
     </row>
-    <row r="75" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="17" t="s">
         <v>95</v>
@@ -8297,11 +8297,11 @@
         <v>2.5</v>
       </c>
       <c r="E75" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G75" s="31"/>
       <c r="H75" s="31"/>
@@ -8317,7 +8317,7 @@
       <c r="P75" s="31"/>
       <c r="Q75" s="32"/>
     </row>
-    <row r="76" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="17" t="s">
         <v>96</v>
@@ -8330,11 +8330,11 @@
         <v>2.5</v>
       </c>
       <c r="E76" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G76" s="31"/>
       <c r="H76" s="31"/>
@@ -8350,7 +8350,7 @@
       <c r="P76" s="31"/>
       <c r="Q76" s="32"/>
     </row>
-    <row r="77" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="17" t="s">
         <v>97</v>
@@ -8385,7 +8385,7 @@
       <c r="P77" s="31"/>
       <c r="Q77" s="32"/>
     </row>
-    <row r="78" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="17" t="s">
         <v>98</v>
@@ -8398,11 +8398,11 @@
         <v>2.5</v>
       </c>
       <c r="E78" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G78" s="31"/>
       <c r="H78" s="31"/>
@@ -8418,7 +8418,7 @@
       <c r="P78" s="31"/>
       <c r="Q78" s="32"/>
     </row>
-    <row r="79" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="17" t="s">
         <v>99</v>
@@ -8431,11 +8431,11 @@
         <v>2.5</v>
       </c>
       <c r="E79" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G79" s="31"/>
       <c r="H79" s="31"/>
@@ -8451,7 +8451,7 @@
       <c r="P79" s="31"/>
       <c r="Q79" s="32"/>
     </row>
-    <row r="80" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="17" t="s">
         <v>100</v>
@@ -8464,11 +8464,11 @@
         <v>2.5</v>
       </c>
       <c r="E80" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G80" s="31"/>
       <c r="H80" s="31"/>
@@ -8484,7 +8484,7 @@
       <c r="P80" s="31"/>
       <c r="Q80" s="32"/>
     </row>
-    <row r="81" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="17" t="s">
         <v>101</v>
@@ -8519,7 +8519,7 @@
       <c r="P81" s="31"/>
       <c r="Q81" s="32"/>
     </row>
-    <row r="82" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="17" t="s">
         <v>102</v>
@@ -8532,11 +8532,11 @@
         <v>2.5</v>
       </c>
       <c r="E82" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G82" s="31"/>
       <c r="H82" s="31"/>
@@ -8552,7 +8552,7 @@
       <c r="P82" s="31"/>
       <c r="Q82" s="32"/>
     </row>
-    <row r="83" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="17" t="s">
         <v>103</v>
@@ -8565,11 +8565,11 @@
         <v>2.5</v>
       </c>
       <c r="E83" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G83" s="31"/>
       <c r="H83" s="31"/>
@@ -8585,7 +8585,7 @@
       <c r="P83" s="31"/>
       <c r="Q83" s="32"/>
     </row>
-    <row r="84" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="17" t="s">
         <v>104</v>
@@ -8598,11 +8598,11 @@
         <v>2.5</v>
       </c>
       <c r="E84" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F84" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G84" s="31"/>
       <c r="H84" s="31"/>
@@ -8618,7 +8618,7 @@
       <c r="P84" s="31"/>
       <c r="Q84" s="32"/>
     </row>
-    <row r="85" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="17" t="s">
         <v>105</v>
@@ -8653,7 +8653,7 @@
       <c r="P85" s="31"/>
       <c r="Q85" s="32"/>
     </row>
-    <row r="86" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="17" t="s">
         <v>106</v>
@@ -8666,11 +8666,11 @@
         <v>2.5</v>
       </c>
       <c r="E86" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F86" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G86" s="31"/>
       <c r="H86" s="31"/>
@@ -8686,7 +8686,7 @@
       <c r="P86" s="31"/>
       <c r="Q86" s="32"/>
     </row>
-    <row r="87" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="17" t="s">
         <v>107</v>
@@ -8699,11 +8699,11 @@
         <v>2.5</v>
       </c>
       <c r="E87" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G87" s="31"/>
       <c r="H87" s="31"/>
@@ -8719,7 +8719,7 @@
       <c r="P87" s="31"/>
       <c r="Q87" s="32"/>
     </row>
-    <row r="88" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="17" t="s">
         <v>108</v>
@@ -8732,11 +8732,11 @@
         <v>2.5</v>
       </c>
       <c r="E88" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F88" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G88" s="31"/>
       <c r="H88" s="31"/>
@@ -8752,7 +8752,7 @@
       <c r="P88" s="31"/>
       <c r="Q88" s="32"/>
     </row>
-    <row r="89" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="17" t="s">
         <v>109</v>
@@ -8765,11 +8765,11 @@
         <v>5</v>
       </c>
       <c r="E89" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F89" s="12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G89" s="31"/>
       <c r="H89" s="31"/>
@@ -8787,7 +8787,7 @@
       <c r="P89" s="31"/>
       <c r="Q89" s="32"/>
     </row>
-    <row r="90" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="17" t="s">
         <v>110</v>
@@ -8800,11 +8800,11 @@
         <v>2.5</v>
       </c>
       <c r="E90" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G90" s="31"/>
       <c r="H90" s="31"/>
@@ -8820,7 +8820,7 @@
       <c r="P90" s="31"/>
       <c r="Q90" s="32"/>
     </row>
-    <row r="91" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="17" t="s">
         <v>111</v>
@@ -8833,11 +8833,11 @@
         <v>2.5</v>
       </c>
       <c r="E91" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F91" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G91" s="31"/>
       <c r="H91" s="31"/>
@@ -8853,7 +8853,7 @@
       <c r="P91" s="31"/>
       <c r="Q91" s="32"/>
     </row>
-    <row r="92" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="17" t="s">
         <v>108</v>
@@ -8866,11 +8866,11 @@
         <v>2.5</v>
       </c>
       <c r="E92" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G92" s="31"/>
       <c r="H92" s="31"/>
@@ -8886,7 +8886,7 @@
       <c r="P92" s="31"/>
       <c r="Q92" s="32"/>
     </row>
-    <row r="93" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="17" t="s">
         <v>112</v>
@@ -8899,11 +8899,11 @@
         <v>5</v>
       </c>
       <c r="E93" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F93" s="12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G93" s="31"/>
       <c r="H93" s="31"/>
@@ -8921,7 +8921,7 @@
       <c r="P93" s="31"/>
       <c r="Q93" s="32"/>
     </row>
-    <row r="94" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="17" t="s">
         <v>113</v>
@@ -8934,11 +8934,11 @@
         <v>2.5</v>
       </c>
       <c r="E94" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G94" s="31"/>
       <c r="H94" s="31"/>
@@ -8954,7 +8954,7 @@
       <c r="P94" s="31"/>
       <c r="Q94" s="32"/>
     </row>
-    <row r="95" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="17" t="s">
         <v>114</v>
@@ -8967,11 +8967,11 @@
         <v>2.5</v>
       </c>
       <c r="E95" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G95" s="31"/>
       <c r="H95" s="31"/>
@@ -8987,7 +8987,7 @@
       <c r="P95" s="31"/>
       <c r="Q95" s="32"/>
     </row>
-    <row r="96" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="17" t="s">
         <v>115</v>
@@ -9000,11 +9000,11 @@
         <v>5</v>
       </c>
       <c r="E96" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F96" s="12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G96" s="31"/>
       <c r="H96" s="31"/>
@@ -9022,7 +9022,7 @@
       <c r="P96" s="31"/>
       <c r="Q96" s="32"/>
     </row>
-    <row r="97" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="17" t="s">
         <v>116</v>
@@ -9053,7 +9053,7 @@
       <c r="P97" s="31"/>
       <c r="Q97" s="32"/>
     </row>
-    <row r="98" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="17" t="s">
         <v>117</v>
@@ -9084,7 +9084,7 @@
       <c r="P98" s="31"/>
       <c r="Q98" s="32"/>
     </row>
-    <row r="99" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="17" t="s">
         <v>118</v>
@@ -9115,7 +9115,7 @@
       <c r="P99" s="31"/>
       <c r="Q99" s="32"/>
     </row>
-    <row r="100" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="17" t="s">
         <v>119</v>
@@ -9128,11 +9128,11 @@
         <v>5</v>
       </c>
       <c r="E100" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F100" s="12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G100" s="31"/>
       <c r="H100" s="31"/>
@@ -9150,7 +9150,7 @@
       <c r="P100" s="31"/>
       <c r="Q100" s="32"/>
     </row>
-    <row r="101" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="17" t="s">
         <v>120</v>
@@ -9181,7 +9181,7 @@
       <c r="P101" s="31"/>
       <c r="Q101" s="32"/>
     </row>
-    <row r="102" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="8" t="s">
         <v>28</v>
@@ -9212,7 +9212,7 @@
       <c r="P102" s="31"/>
       <c r="Q102" s="32"/>
     </row>
-    <row r="103" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="41" t="s">
         <v>121</v>
       </c>
@@ -9253,7 +9253,7 @@
       <c r="P103" s="31"/>
       <c r="Q103" s="32"/>
     </row>
-    <row r="104" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="17" t="s">
         <v>123</v>
@@ -9284,7 +9284,7 @@
       <c r="P104" s="31"/>
       <c r="Q104" s="32"/>
     </row>
-    <row r="105" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
       <c r="B105" s="17" t="s">
         <v>124</v>
@@ -9315,7 +9315,7 @@
       <c r="P105" s="31"/>
       <c r="Q105" s="32"/>
     </row>
-    <row r="106" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
       <c r="B106" s="17" t="s">
         <v>125</v>
@@ -9346,7 +9346,7 @@
       <c r="P106" s="31"/>
       <c r="Q106" s="32"/>
     </row>
-    <row r="107" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="17" t="s">
         <v>126</v>
@@ -9377,7 +9377,7 @@
       <c r="P107" s="31"/>
       <c r="Q107" s="32"/>
     </row>
-    <row r="108" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="17" t="s">
         <v>127</v>
@@ -9408,7 +9408,7 @@
       <c r="P108" s="31"/>
       <c r="Q108" s="32"/>
     </row>
-    <row r="109" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="17" t="s">
         <v>128</v>
@@ -9439,7 +9439,7 @@
       <c r="P109" s="31"/>
       <c r="Q109" s="32"/>
     </row>
-    <row r="110" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
       <c r="B110" s="17" t="s">
         <v>129</v>
@@ -9470,7 +9470,7 @@
       <c r="P110" s="31"/>
       <c r="Q110" s="32"/>
     </row>
-    <row r="111" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="17" t="s">
         <v>130</v>
@@ -9501,7 +9501,7 @@
       <c r="P111" s="31"/>
       <c r="Q111" s="32"/>
     </row>
-    <row r="112" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="17" t="s">
         <v>131</v>
@@ -9532,7 +9532,7 @@
       <c r="P112" s="31"/>
       <c r="Q112" s="32"/>
     </row>
-    <row r="113" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="8" t="s">
         <v>28</v>
@@ -9563,7 +9563,7 @@
       <c r="P113" s="31"/>
       <c r="Q113" s="32"/>
     </row>
-    <row r="114" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C114" s="42" t="s">
         <v>132</v>
       </c>
@@ -9614,8 +9614,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="35" t="s">
         <v>19</v>
       </c>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="T116" s="36"/>
     </row>
-    <row r="117" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="35" t="s">
         <v>23</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="35" t="s">
         <v>32</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="35" t="s">
         <v>133</v>
       </c>
@@ -9653,2647 +9653,2647 @@
       </c>
       <c r="I119" s="36"/>
     </row>
-    <row r="120" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C120" s="35"/>
     </row>
-    <row r="121" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="35"/>
     </row>
-    <row r="122" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C122" s="35"/>
     </row>
-    <row r="123" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C123" s="35"/>
     </row>
-    <row r="124" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C124" s="35"/>
     </row>
-    <row r="125" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C125" s="35"/>
     </row>
-    <row r="126" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C126" s="35"/>
     </row>
-    <row r="127" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C127" s="35"/>
     </row>
-    <row r="128" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C128" s="35"/>
     </row>
-    <row r="129" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C129" s="35"/>
     </row>
-    <row r="130" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C130" s="35"/>
     </row>
-    <row r="131" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C131" s="35"/>
     </row>
-    <row r="132" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C132" s="35"/>
     </row>
-    <row r="133" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C133" s="35"/>
     </row>
-    <row r="134" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C134" s="35"/>
     </row>
-    <row r="135" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="35"/>
     </row>
-    <row r="136" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C136" s="35"/>
     </row>
-    <row r="137" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C137" s="35"/>
     </row>
-    <row r="138" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C138" s="35"/>
     </row>
-    <row r="139" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C139" s="35"/>
     </row>
-    <row r="140" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="35"/>
     </row>
-    <row r="141" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="35"/>
     </row>
-    <row r="142" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="35"/>
     </row>
-    <row r="143" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="35"/>
     </row>
-    <row r="144" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="35"/>
     </row>
-    <row r="145" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="35"/>
     </row>
-    <row r="146" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="35"/>
     </row>
-    <row r="147" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="35"/>
     </row>
-    <row r="148" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="35"/>
     </row>
-    <row r="149" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="35"/>
     </row>
-    <row r="150" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="35"/>
     </row>
-    <row r="151" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="35"/>
     </row>
-    <row r="152" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="35"/>
     </row>
-    <row r="153" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="35"/>
     </row>
-    <row r="154" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="35"/>
     </row>
-    <row r="155" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="35"/>
     </row>
-    <row r="156" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="35"/>
     </row>
-    <row r="157" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C157" s="35"/>
     </row>
-    <row r="158" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="35"/>
     </row>
-    <row r="159" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="35"/>
     </row>
-    <row r="160" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C160" s="35"/>
     </row>
-    <row r="161" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C161" s="35"/>
     </row>
-    <row r="162" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="35"/>
     </row>
-    <row r="163" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="35"/>
     </row>
-    <row r="164" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="35"/>
     </row>
-    <row r="165" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="35"/>
     </row>
-    <row r="166" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C166" s="35"/>
     </row>
-    <row r="167" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="35"/>
     </row>
-    <row r="168" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="35"/>
     </row>
-    <row r="169" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="35"/>
     </row>
-    <row r="170" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="35"/>
     </row>
-    <row r="171" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="35"/>
     </row>
-    <row r="172" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="35"/>
     </row>
-    <row r="173" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="35"/>
     </row>
-    <row r="174" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="35"/>
     </row>
-    <row r="175" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="35"/>
     </row>
-    <row r="176" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="35"/>
     </row>
-    <row r="177" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C177" s="35"/>
     </row>
-    <row r="178" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C178" s="35"/>
     </row>
-    <row r="179" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C179" s="35"/>
     </row>
-    <row r="180" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C180" s="35"/>
     </row>
-    <row r="181" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C181" s="35"/>
     </row>
-    <row r="182" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C182" s="35"/>
     </row>
-    <row r="183" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C183" s="35"/>
     </row>
-    <row r="184" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C184" s="35"/>
     </row>
-    <row r="185" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C185" s="35"/>
     </row>
-    <row r="186" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C186" s="35"/>
     </row>
-    <row r="187" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C187" s="35"/>
     </row>
-    <row r="188" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C188" s="35"/>
     </row>
-    <row r="189" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C189" s="35"/>
     </row>
-    <row r="190" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C190" s="35"/>
     </row>
-    <row r="191" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C191" s="35"/>
     </row>
-    <row r="192" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C192" s="35"/>
     </row>
-    <row r="193" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C193" s="35"/>
     </row>
-    <row r="194" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C194" s="35"/>
     </row>
-    <row r="195" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C195" s="35"/>
     </row>
-    <row r="196" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C196" s="35"/>
     </row>
-    <row r="197" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C197" s="35"/>
     </row>
-    <row r="198" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C198" s="35"/>
     </row>
-    <row r="199" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C199" s="35"/>
     </row>
-    <row r="200" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C200" s="35"/>
     </row>
-    <row r="201" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="35"/>
     </row>
-    <row r="202" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C202" s="35"/>
     </row>
-    <row r="203" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C203" s="35"/>
     </row>
-    <row r="204" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C204" s="35"/>
     </row>
-    <row r="205" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C205" s="35"/>
     </row>
-    <row r="206" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C206" s="35"/>
     </row>
-    <row r="207" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C207" s="35"/>
     </row>
-    <row r="208" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C208" s="35"/>
     </row>
-    <row r="209" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C209" s="35"/>
     </row>
-    <row r="210" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C210" s="35"/>
     </row>
-    <row r="211" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C211" s="35"/>
     </row>
-    <row r="212" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C212" s="35"/>
     </row>
-    <row r="213" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C213" s="35"/>
     </row>
-    <row r="214" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C214" s="35"/>
     </row>
-    <row r="215" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C215" s="35"/>
     </row>
-    <row r="216" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C216" s="35"/>
     </row>
-    <row r="217" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C217" s="35"/>
     </row>
-    <row r="218" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C218" s="35"/>
     </row>
-    <row r="219" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C219" s="35"/>
     </row>
-    <row r="220" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C220" s="35"/>
     </row>
-    <row r="221" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C221" s="35"/>
     </row>
-    <row r="222" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C222" s="35"/>
     </row>
-    <row r="223" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C223" s="35"/>
     </row>
-    <row r="224" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C224" s="35"/>
     </row>
-    <row r="225" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C225" s="35"/>
     </row>
-    <row r="226" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C226" s="35"/>
     </row>
-    <row r="227" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C227" s="35"/>
     </row>
-    <row r="228" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C228" s="35"/>
     </row>
-    <row r="229" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C229" s="35"/>
     </row>
-    <row r="230" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C230" s="35"/>
     </row>
-    <row r="231" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C231" s="35"/>
     </row>
-    <row r="232" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C232" s="35"/>
     </row>
-    <row r="233" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C233" s="35"/>
     </row>
-    <row r="234" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C234" s="35"/>
     </row>
-    <row r="235" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C235" s="35"/>
     </row>
-    <row r="236" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C236" s="35"/>
     </row>
-    <row r="237" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C237" s="35"/>
     </row>
-    <row r="238" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C238" s="35"/>
     </row>
-    <row r="239" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C239" s="35"/>
     </row>
-    <row r="240" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C240" s="35"/>
     </row>
-    <row r="241" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C241" s="35"/>
     </row>
-    <row r="242" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C242" s="35"/>
     </row>
-    <row r="243" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="35"/>
     </row>
-    <row r="244" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C244" s="35"/>
     </row>
-    <row r="245" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C245" s="35"/>
     </row>
-    <row r="246" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C246" s="35"/>
     </row>
-    <row r="247" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C247" s="35"/>
     </row>
-    <row r="248" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C248" s="35"/>
     </row>
-    <row r="249" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C249" s="35"/>
     </row>
-    <row r="250" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C250" s="35"/>
     </row>
-    <row r="251" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C251" s="35"/>
     </row>
-    <row r="252" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C252" s="35"/>
     </row>
-    <row r="253" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C253" s="35"/>
     </row>
-    <row r="254" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C254" s="35"/>
     </row>
-    <row r="255" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C255" s="35"/>
     </row>
-    <row r="256" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C256" s="35"/>
     </row>
-    <row r="257" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C257" s="35"/>
     </row>
-    <row r="258" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C258" s="35"/>
     </row>
-    <row r="259" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C259" s="35"/>
     </row>
-    <row r="260" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C260" s="35"/>
     </row>
-    <row r="261" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C261" s="35"/>
     </row>
-    <row r="262" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C262" s="35"/>
     </row>
-    <row r="263" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="35"/>
     </row>
-    <row r="264" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C264" s="35"/>
     </row>
-    <row r="265" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C265" s="35"/>
     </row>
-    <row r="266" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C266" s="35"/>
     </row>
-    <row r="267" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C267" s="35"/>
     </row>
-    <row r="268" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C268" s="35"/>
     </row>
-    <row r="269" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C269" s="35"/>
     </row>
-    <row r="270" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="35"/>
     </row>
-    <row r="271" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C271" s="35"/>
     </row>
-    <row r="272" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C272" s="35"/>
     </row>
-    <row r="273" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C273" s="35"/>
     </row>
-    <row r="274" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C274" s="35"/>
     </row>
-    <row r="275" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C275" s="35"/>
     </row>
-    <row r="276" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C276" s="35"/>
     </row>
-    <row r="277" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C277" s="35"/>
     </row>
-    <row r="278" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C278" s="35"/>
     </row>
-    <row r="279" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C279" s="35"/>
     </row>
-    <row r="280" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C280" s="35"/>
     </row>
-    <row r="281" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C281" s="35"/>
     </row>
-    <row r="282" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C282" s="35"/>
     </row>
-    <row r="283" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C283" s="35"/>
     </row>
-    <row r="284" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C284" s="35"/>
     </row>
-    <row r="285" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C285" s="35"/>
     </row>
-    <row r="286" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C286" s="35"/>
     </row>
-    <row r="287" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C287" s="35"/>
     </row>
-    <row r="288" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C288" s="35"/>
     </row>
-    <row r="289" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C289" s="35"/>
     </row>
-    <row r="290" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C290" s="35"/>
     </row>
-    <row r="291" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C291" s="35"/>
     </row>
-    <row r="292" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C292" s="35"/>
     </row>
-    <row r="293" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C293" s="35"/>
     </row>
-    <row r="294" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C294" s="35"/>
     </row>
-    <row r="295" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C295" s="35"/>
     </row>
-    <row r="296" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C296" s="35"/>
     </row>
-    <row r="297" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C297" s="35"/>
     </row>
-    <row r="298" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C298" s="35"/>
     </row>
-    <row r="299" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="35"/>
     </row>
-    <row r="300" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C300" s="35"/>
     </row>
-    <row r="301" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C301" s="35"/>
     </row>
-    <row r="302" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C302" s="35"/>
     </row>
-    <row r="303" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C303" s="35"/>
     </row>
-    <row r="304" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C304" s="35"/>
     </row>
-    <row r="305" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C305" s="35"/>
     </row>
-    <row r="306" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C306" s="35"/>
     </row>
-    <row r="307" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C307" s="35"/>
     </row>
-    <row r="308" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C308" s="35"/>
     </row>
-    <row r="309" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C309" s="35"/>
     </row>
-    <row r="310" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C310" s="35"/>
     </row>
-    <row r="311" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C311" s="35"/>
     </row>
-    <row r="312" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C312" s="35"/>
     </row>
-    <row r="313" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C313" s="35"/>
     </row>
-    <row r="314" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C314" s="35"/>
     </row>
-    <row r="315" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C315" s="35"/>
     </row>
-    <row r="316" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C316" s="35"/>
     </row>
-    <row r="317" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C317" s="35"/>
     </row>
-    <row r="318" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C318" s="35"/>
     </row>
-    <row r="319" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C319" s="35"/>
     </row>
-    <row r="320" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C320" s="37"/>
     </row>
-    <row r="321" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C321" s="37"/>
     </row>
-    <row r="322" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C322" s="37"/>
     </row>
-    <row r="323" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C323" s="37"/>
     </row>
-    <row r="324" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C324" s="37"/>
     </row>
-    <row r="325" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C325" s="37"/>
     </row>
-    <row r="326" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C326" s="37"/>
     </row>
-    <row r="327" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C327" s="37"/>
     </row>
-    <row r="328" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C328" s="37"/>
     </row>
-    <row r="329" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C329" s="37"/>
     </row>
-    <row r="330" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C330" s="37"/>
     </row>
-    <row r="331" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C331" s="37"/>
     </row>
-    <row r="332" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C332" s="37"/>
     </row>
-    <row r="333" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C333" s="37"/>
     </row>
-    <row r="334" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C334" s="37"/>
     </row>
-    <row r="335" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C335" s="37"/>
     </row>
-    <row r="336" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C336" s="37"/>
     </row>
-    <row r="337" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C337" s="37"/>
     </row>
-    <row r="338" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C338" s="37"/>
     </row>
-    <row r="339" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C339" s="37"/>
     </row>
-    <row r="340" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C340" s="37"/>
     </row>
-    <row r="341" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C341" s="37"/>
     </row>
-    <row r="342" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C342" s="37"/>
     </row>
-    <row r="343" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C343" s="37"/>
     </row>
-    <row r="344" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C344" s="37"/>
     </row>
-    <row r="345" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C345" s="37"/>
     </row>
-    <row r="346" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C346" s="37"/>
     </row>
-    <row r="347" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C347" s="37"/>
     </row>
-    <row r="348" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C348" s="37"/>
     </row>
-    <row r="349" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C349" s="37"/>
     </row>
-    <row r="350" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C350" s="37"/>
     </row>
-    <row r="351" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C351" s="37"/>
     </row>
-    <row r="352" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C352" s="37"/>
     </row>
-    <row r="353" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C353" s="37"/>
     </row>
-    <row r="354" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C354" s="37"/>
     </row>
-    <row r="355" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C355" s="37"/>
     </row>
-    <row r="356" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C356" s="37"/>
     </row>
-    <row r="357" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C357" s="37"/>
     </row>
-    <row r="358" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C358" s="37"/>
     </row>
-    <row r="359" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C359" s="37"/>
     </row>
-    <row r="360" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C360" s="37"/>
     </row>
-    <row r="361" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C361" s="37"/>
     </row>
-    <row r="362" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C362" s="37"/>
     </row>
-    <row r="363" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C363" s="37"/>
     </row>
-    <row r="364" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C364" s="37"/>
     </row>
-    <row r="365" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C365" s="37"/>
     </row>
-    <row r="366" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C366" s="37"/>
     </row>
-    <row r="367" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C367" s="37"/>
     </row>
-    <row r="368" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C368" s="37"/>
     </row>
-    <row r="369" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C369" s="37"/>
     </row>
-    <row r="370" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C370" s="37"/>
     </row>
-    <row r="371" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C371" s="37"/>
     </row>
-    <row r="372" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C372" s="37"/>
     </row>
-    <row r="373" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C373" s="37"/>
     </row>
-    <row r="374" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C374" s="37"/>
     </row>
-    <row r="375" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C375" s="37"/>
     </row>
-    <row r="376" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C376" s="37"/>
     </row>
-    <row r="377" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C377" s="37"/>
     </row>
-    <row r="378" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C378" s="37"/>
     </row>
-    <row r="379" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C379" s="37"/>
     </row>
-    <row r="380" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C380" s="37"/>
     </row>
-    <row r="381" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C381" s="37"/>
     </row>
-    <row r="382" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C382" s="37"/>
     </row>
-    <row r="383" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C383" s="37"/>
     </row>
-    <row r="384" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C384" s="37"/>
     </row>
-    <row r="385" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C385" s="37"/>
     </row>
-    <row r="386" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C386" s="37"/>
     </row>
-    <row r="387" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C387" s="37"/>
     </row>
-    <row r="388" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C388" s="37"/>
     </row>
-    <row r="389" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C389" s="37"/>
     </row>
-    <row r="390" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C390" s="37"/>
     </row>
-    <row r="391" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C391" s="37"/>
     </row>
-    <row r="392" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C392" s="37"/>
     </row>
-    <row r="393" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C393" s="37"/>
     </row>
-    <row r="394" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C394" s="37"/>
     </row>
-    <row r="395" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C395" s="37"/>
     </row>
-    <row r="396" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C396" s="37"/>
     </row>
-    <row r="397" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C397" s="37"/>
     </row>
-    <row r="398" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C398" s="37"/>
     </row>
-    <row r="399" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C399" s="37"/>
     </row>
-    <row r="400" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C400" s="37"/>
     </row>
-    <row r="401" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C401" s="37"/>
     </row>
-    <row r="402" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C402" s="37"/>
     </row>
-    <row r="403" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C403" s="37"/>
     </row>
-    <row r="404" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C404" s="37"/>
     </row>
-    <row r="405" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C405" s="37"/>
     </row>
-    <row r="406" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C406" s="37"/>
     </row>
-    <row r="407" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C407" s="37"/>
     </row>
-    <row r="408" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C408" s="37"/>
     </row>
-    <row r="409" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C409" s="37"/>
     </row>
-    <row r="410" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C410" s="37"/>
     </row>
-    <row r="411" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C411" s="37"/>
     </row>
-    <row r="412" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C412" s="37"/>
     </row>
-    <row r="413" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C413" s="37"/>
     </row>
-    <row r="414" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C414" s="37"/>
     </row>
-    <row r="415" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C415" s="37"/>
     </row>
-    <row r="416" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C416" s="37"/>
     </row>
-    <row r="417" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C417" s="37"/>
     </row>
-    <row r="418" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C418" s="37"/>
     </row>
-    <row r="419" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C419" s="37"/>
     </row>
-    <row r="420" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C420" s="37"/>
     </row>
-    <row r="421" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C421" s="37"/>
     </row>
-    <row r="422" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C422" s="37"/>
     </row>
-    <row r="423" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C423" s="37"/>
     </row>
-    <row r="424" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C424" s="37"/>
     </row>
-    <row r="425" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C425" s="37"/>
     </row>
-    <row r="426" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C426" s="37"/>
     </row>
-    <row r="427" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C427" s="37"/>
     </row>
-    <row r="428" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C428" s="37"/>
     </row>
-    <row r="429" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C429" s="37"/>
     </row>
-    <row r="430" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C430" s="37"/>
     </row>
-    <row r="431" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C431" s="37"/>
     </row>
-    <row r="432" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C432" s="37"/>
     </row>
-    <row r="433" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C433" s="37"/>
     </row>
-    <row r="434" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C434" s="37"/>
     </row>
-    <row r="435" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C435" s="37"/>
     </row>
-    <row r="436" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C436" s="37"/>
     </row>
-    <row r="437" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C437" s="37"/>
     </row>
-    <row r="438" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C438" s="37"/>
     </row>
-    <row r="439" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C439" s="37"/>
     </row>
-    <row r="440" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C440" s="37"/>
     </row>
-    <row r="441" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C441" s="37"/>
     </row>
-    <row r="442" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C442" s="37"/>
     </row>
-    <row r="443" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C443" s="37"/>
     </row>
-    <row r="444" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C444" s="37"/>
     </row>
-    <row r="445" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C445" s="37"/>
     </row>
-    <row r="446" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C446" s="37"/>
     </row>
-    <row r="447" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C447" s="37"/>
     </row>
-    <row r="448" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C448" s="37"/>
     </row>
-    <row r="449" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C449" s="37"/>
     </row>
-    <row r="450" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C450" s="37"/>
     </row>
-    <row r="451" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C451" s="37"/>
     </row>
-    <row r="452" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C452" s="37"/>
     </row>
-    <row r="453" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C453" s="37"/>
     </row>
-    <row r="454" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C454" s="37"/>
     </row>
-    <row r="455" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C455" s="37"/>
     </row>
-    <row r="456" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C456" s="37"/>
     </row>
-    <row r="457" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C457" s="37"/>
     </row>
-    <row r="458" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C458" s="37"/>
     </row>
-    <row r="459" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C459" s="37"/>
     </row>
-    <row r="460" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C460" s="37"/>
     </row>
-    <row r="461" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C461" s="37"/>
     </row>
-    <row r="462" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C462" s="37"/>
     </row>
-    <row r="463" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C463" s="37"/>
     </row>
-    <row r="464" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C464" s="37"/>
     </row>
-    <row r="465" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C465" s="37"/>
     </row>
-    <row r="466" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C466" s="37"/>
     </row>
-    <row r="467" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C467" s="37"/>
     </row>
-    <row r="468" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C468" s="37"/>
     </row>
-    <row r="469" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C469" s="37"/>
     </row>
-    <row r="470" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C470" s="37"/>
     </row>
-    <row r="471" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C471" s="37"/>
     </row>
-    <row r="472" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C472" s="37"/>
     </row>
-    <row r="473" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C473" s="37"/>
     </row>
-    <row r="474" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C474" s="37"/>
     </row>
-    <row r="475" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C475" s="37"/>
     </row>
-    <row r="476" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C476" s="37"/>
     </row>
-    <row r="477" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C477" s="37"/>
     </row>
-    <row r="478" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C478" s="37"/>
     </row>
-    <row r="479" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C479" s="37"/>
     </row>
-    <row r="480" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C480" s="37"/>
     </row>
-    <row r="481" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C481" s="37"/>
     </row>
-    <row r="482" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C482" s="37"/>
     </row>
-    <row r="483" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C483" s="37"/>
     </row>
-    <row r="484" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C484" s="37"/>
     </row>
-    <row r="485" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C485" s="37"/>
     </row>
-    <row r="486" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C486" s="37"/>
     </row>
-    <row r="487" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C487" s="37"/>
     </row>
-    <row r="488" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C488" s="37"/>
     </row>
-    <row r="489" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C489" s="37"/>
     </row>
-    <row r="490" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C490" s="37"/>
     </row>
-    <row r="491" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C491" s="37"/>
     </row>
-    <row r="492" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C492" s="37"/>
     </row>
-    <row r="493" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C493" s="37"/>
     </row>
-    <row r="494" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C494" s="37"/>
     </row>
-    <row r="495" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C495" s="37"/>
     </row>
-    <row r="496" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C496" s="37"/>
     </row>
-    <row r="497" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C497" s="37"/>
     </row>
-    <row r="498" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C498" s="37"/>
     </row>
-    <row r="499" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C499" s="37"/>
     </row>
-    <row r="500" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C500" s="37"/>
     </row>
-    <row r="501" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C501" s="37"/>
     </row>
-    <row r="502" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C502" s="37"/>
     </row>
-    <row r="503" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C503" s="37"/>
     </row>
-    <row r="504" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C504" s="37"/>
     </row>
-    <row r="505" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C505" s="37"/>
     </row>
-    <row r="506" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C506" s="37"/>
     </row>
-    <row r="507" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C507" s="37"/>
     </row>
-    <row r="508" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C508" s="37"/>
     </row>
-    <row r="509" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C509" s="37"/>
     </row>
-    <row r="510" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C510" s="37"/>
     </row>
-    <row r="511" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C511" s="37"/>
     </row>
-    <row r="512" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C512" s="37"/>
     </row>
-    <row r="513" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C513" s="37"/>
     </row>
-    <row r="514" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C514" s="37"/>
     </row>
-    <row r="515" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C515" s="37"/>
     </row>
-    <row r="516" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C516" s="37"/>
     </row>
-    <row r="517" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C517" s="37"/>
     </row>
-    <row r="518" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C518" s="37"/>
     </row>
-    <row r="519" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C519" s="37"/>
     </row>
-    <row r="520" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C520" s="37"/>
     </row>
-    <row r="521" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C521" s="37"/>
     </row>
-    <row r="522" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C522" s="37"/>
     </row>
-    <row r="523" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C523" s="37"/>
     </row>
-    <row r="524" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C524" s="37"/>
     </row>
-    <row r="525" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C525" s="37"/>
     </row>
-    <row r="526" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C526" s="37"/>
     </row>
-    <row r="527" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C527" s="37"/>
     </row>
-    <row r="528" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C528" s="37"/>
     </row>
-    <row r="529" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C529" s="37"/>
     </row>
-    <row r="530" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C530" s="37"/>
     </row>
-    <row r="531" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C531" s="37"/>
     </row>
-    <row r="532" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C532" s="37"/>
     </row>
-    <row r="533" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C533" s="37"/>
     </row>
-    <row r="534" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C534" s="37"/>
     </row>
-    <row r="535" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C535" s="37"/>
     </row>
-    <row r="536" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C536" s="37"/>
     </row>
-    <row r="537" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C537" s="37"/>
     </row>
-    <row r="538" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C538" s="37"/>
     </row>
-    <row r="539" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C539" s="37"/>
     </row>
-    <row r="540" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C540" s="37"/>
     </row>
-    <row r="541" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C541" s="37"/>
     </row>
-    <row r="542" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C542" s="37"/>
     </row>
-    <row r="543" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C543" s="37"/>
     </row>
-    <row r="544" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C544" s="37"/>
     </row>
-    <row r="545" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C545" s="37"/>
     </row>
-    <row r="546" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C546" s="37"/>
     </row>
-    <row r="547" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C547" s="37"/>
     </row>
-    <row r="548" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C548" s="37"/>
     </row>
-    <row r="549" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C549" s="37"/>
     </row>
-    <row r="550" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C550" s="37"/>
     </row>
-    <row r="551" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C551" s="37"/>
     </row>
-    <row r="552" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C552" s="37"/>
     </row>
-    <row r="553" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C553" s="37"/>
     </row>
-    <row r="554" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C554" s="37"/>
     </row>
-    <row r="555" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C555" s="37"/>
     </row>
-    <row r="556" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C556" s="37"/>
     </row>
-    <row r="557" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C557" s="37"/>
     </row>
-    <row r="558" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C558" s="37"/>
     </row>
-    <row r="559" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C559" s="37"/>
     </row>
-    <row r="560" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C560" s="37"/>
     </row>
-    <row r="561" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C561" s="37"/>
     </row>
-    <row r="562" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C562" s="37"/>
     </row>
-    <row r="563" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C563" s="37"/>
     </row>
-    <row r="564" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C564" s="37"/>
     </row>
-    <row r="565" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C565" s="37"/>
     </row>
-    <row r="566" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C566" s="37"/>
     </row>
-    <row r="567" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C567" s="37"/>
     </row>
-    <row r="568" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C568" s="37"/>
     </row>
-    <row r="569" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C569" s="37"/>
     </row>
-    <row r="570" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C570" s="37"/>
     </row>
-    <row r="571" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C571" s="37"/>
     </row>
-    <row r="572" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C572" s="37"/>
     </row>
-    <row r="573" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C573" s="37"/>
     </row>
-    <row r="574" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C574" s="37"/>
     </row>
-    <row r="575" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C575" s="37"/>
     </row>
-    <row r="576" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C576" s="37"/>
     </row>
-    <row r="577" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C577" s="37"/>
     </row>
-    <row r="578" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C578" s="37"/>
     </row>
-    <row r="579" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C579" s="37"/>
     </row>
-    <row r="580" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C580" s="37"/>
     </row>
-    <row r="581" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C581" s="37"/>
     </row>
-    <row r="582" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C582" s="37"/>
     </row>
-    <row r="583" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C583" s="37"/>
     </row>
-    <row r="584" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C584" s="37"/>
     </row>
-    <row r="585" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C585" s="37"/>
     </row>
-    <row r="586" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C586" s="37"/>
     </row>
-    <row r="587" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C587" s="37"/>
     </row>
-    <row r="588" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C588" s="37"/>
     </row>
-    <row r="589" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C589" s="37"/>
     </row>
-    <row r="590" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C590" s="37"/>
     </row>
-    <row r="591" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C591" s="37"/>
     </row>
-    <row r="592" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C592" s="37"/>
     </row>
-    <row r="593" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C593" s="37"/>
     </row>
-    <row r="594" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C594" s="37"/>
     </row>
-    <row r="595" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C595" s="37"/>
     </row>
-    <row r="596" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C596" s="37"/>
     </row>
-    <row r="597" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C597" s="37"/>
     </row>
-    <row r="598" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C598" s="37"/>
     </row>
-    <row r="599" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C599" s="37"/>
     </row>
-    <row r="600" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C600" s="37"/>
     </row>
-    <row r="601" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C601" s="37"/>
     </row>
-    <row r="602" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C602" s="37"/>
     </row>
-    <row r="603" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C603" s="37"/>
     </row>
-    <row r="604" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C604" s="37"/>
     </row>
-    <row r="605" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C605" s="37"/>
     </row>
-    <row r="606" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C606" s="37"/>
     </row>
-    <row r="607" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C607" s="37"/>
     </row>
-    <row r="608" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C608" s="37"/>
     </row>
-    <row r="609" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C609" s="37"/>
     </row>
-    <row r="610" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C610" s="37"/>
     </row>
-    <row r="611" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C611" s="37"/>
     </row>
-    <row r="612" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C612" s="37"/>
     </row>
-    <row r="613" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C613" s="37"/>
     </row>
-    <row r="614" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C614" s="37"/>
     </row>
-    <row r="615" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C615" s="37"/>
     </row>
-    <row r="616" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C616" s="37"/>
     </row>
-    <row r="617" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C617" s="37"/>
     </row>
-    <row r="618" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C618" s="37"/>
     </row>
-    <row r="619" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C619" s="37"/>
     </row>
-    <row r="620" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C620" s="37"/>
     </row>
-    <row r="621" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C621" s="37"/>
     </row>
-    <row r="622" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C622" s="37"/>
     </row>
-    <row r="623" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C623" s="37"/>
     </row>
-    <row r="624" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C624" s="37"/>
     </row>
-    <row r="625" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C625" s="37"/>
     </row>
-    <row r="626" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C626" s="37"/>
     </row>
-    <row r="627" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C627" s="37"/>
     </row>
-    <row r="628" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C628" s="37"/>
     </row>
-    <row r="629" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C629" s="37"/>
     </row>
-    <row r="630" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C630" s="37"/>
     </row>
-    <row r="631" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C631" s="37"/>
     </row>
-    <row r="632" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C632" s="37"/>
     </row>
-    <row r="633" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C633" s="37"/>
     </row>
-    <row r="634" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C634" s="37"/>
     </row>
-    <row r="635" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C635" s="37"/>
     </row>
-    <row r="636" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C636" s="37"/>
     </row>
-    <row r="637" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C637" s="37"/>
     </row>
-    <row r="638" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C638" s="37"/>
     </row>
-    <row r="639" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C639" s="37"/>
     </row>
-    <row r="640" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C640" s="37"/>
     </row>
-    <row r="641" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C641" s="37"/>
     </row>
-    <row r="642" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C642" s="37"/>
     </row>
-    <row r="643" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C643" s="37"/>
     </row>
-    <row r="644" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C644" s="37"/>
     </row>
-    <row r="645" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C645" s="37"/>
     </row>
-    <row r="646" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C646" s="37"/>
     </row>
-    <row r="647" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C647" s="37"/>
     </row>
-    <row r="648" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C648" s="37"/>
     </row>
-    <row r="649" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C649" s="37"/>
     </row>
-    <row r="650" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C650" s="37"/>
     </row>
-    <row r="651" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C651" s="37"/>
     </row>
-    <row r="652" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C652" s="37"/>
     </row>
-    <row r="653" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C653" s="37"/>
     </row>
-    <row r="654" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C654" s="37"/>
     </row>
-    <row r="655" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C655" s="37"/>
     </row>
-    <row r="656" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C656" s="37"/>
     </row>
-    <row r="657" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C657" s="37"/>
     </row>
-    <row r="658" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C658" s="37"/>
     </row>
-    <row r="659" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C659" s="37"/>
     </row>
-    <row r="660" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C660" s="37"/>
     </row>
-    <row r="661" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C661" s="37"/>
     </row>
-    <row r="662" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C662" s="37"/>
     </row>
-    <row r="663" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C663" s="37"/>
     </row>
-    <row r="664" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C664" s="37"/>
     </row>
-    <row r="665" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C665" s="37"/>
     </row>
-    <row r="666" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C666" s="37"/>
     </row>
-    <row r="667" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C667" s="37"/>
     </row>
-    <row r="668" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C668" s="37"/>
     </row>
-    <row r="669" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C669" s="37"/>
     </row>
-    <row r="670" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C670" s="37"/>
     </row>
-    <row r="671" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C671" s="37"/>
     </row>
-    <row r="672" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C672" s="37"/>
     </row>
-    <row r="673" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C673" s="37"/>
     </row>
-    <row r="674" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C674" s="37"/>
     </row>
-    <row r="675" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C675" s="37"/>
     </row>
-    <row r="676" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C676" s="37"/>
     </row>
-    <row r="677" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C677" s="37"/>
     </row>
-    <row r="678" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C678" s="37"/>
     </row>
-    <row r="679" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C679" s="37"/>
     </row>
-    <row r="680" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C680" s="37"/>
     </row>
-    <row r="681" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C681" s="37"/>
     </row>
-    <row r="682" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C682" s="37"/>
     </row>
-    <row r="683" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C683" s="37"/>
     </row>
-    <row r="684" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C684" s="37"/>
     </row>
-    <row r="685" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C685" s="37"/>
     </row>
-    <row r="686" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C686" s="37"/>
     </row>
-    <row r="687" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C687" s="37"/>
     </row>
-    <row r="688" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C688" s="37"/>
     </row>
-    <row r="689" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C689" s="37"/>
     </row>
-    <row r="690" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C690" s="37"/>
     </row>
-    <row r="691" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C691" s="37"/>
     </row>
-    <row r="692" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C692" s="37"/>
     </row>
-    <row r="693" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C693" s="37"/>
     </row>
-    <row r="694" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C694" s="37"/>
     </row>
-    <row r="695" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C695" s="37"/>
     </row>
-    <row r="696" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C696" s="37"/>
     </row>
-    <row r="697" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C697" s="37"/>
     </row>
-    <row r="698" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C698" s="37"/>
     </row>
-    <row r="699" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C699" s="37"/>
     </row>
-    <row r="700" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C700" s="37"/>
     </row>
-    <row r="701" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C701" s="37"/>
     </row>
-    <row r="702" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C702" s="37"/>
     </row>
-    <row r="703" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C703" s="37"/>
     </row>
-    <row r="704" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C704" s="37"/>
     </row>
-    <row r="705" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C705" s="37"/>
     </row>
-    <row r="706" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C706" s="37"/>
     </row>
-    <row r="707" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C707" s="37"/>
     </row>
-    <row r="708" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C708" s="37"/>
     </row>
-    <row r="709" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C709" s="37"/>
     </row>
-    <row r="710" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C710" s="37"/>
     </row>
-    <row r="711" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C711" s="37"/>
     </row>
-    <row r="712" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C712" s="37"/>
     </row>
-    <row r="713" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C713" s="37"/>
     </row>
-    <row r="714" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C714" s="37"/>
     </row>
-    <row r="715" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C715" s="37"/>
     </row>
-    <row r="716" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C716" s="37"/>
     </row>
-    <row r="717" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C717" s="37"/>
     </row>
-    <row r="718" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C718" s="37"/>
     </row>
-    <row r="719" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C719" s="37"/>
     </row>
-    <row r="720" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C720" s="37"/>
     </row>
-    <row r="721" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C721" s="37"/>
     </row>
-    <row r="722" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C722" s="37"/>
     </row>
-    <row r="723" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C723" s="37"/>
     </row>
-    <row r="724" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C724" s="37"/>
     </row>
-    <row r="725" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C725" s="37"/>
     </row>
-    <row r="726" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C726" s="37"/>
     </row>
-    <row r="727" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C727" s="37"/>
     </row>
-    <row r="728" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C728" s="37"/>
     </row>
-    <row r="729" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C729" s="37"/>
     </row>
-    <row r="730" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C730" s="37"/>
     </row>
-    <row r="731" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C731" s="37"/>
     </row>
-    <row r="732" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C732" s="37"/>
     </row>
-    <row r="733" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C733" s="37"/>
     </row>
-    <row r="734" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C734" s="37"/>
     </row>
-    <row r="735" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C735" s="37"/>
     </row>
-    <row r="736" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C736" s="37"/>
     </row>
-    <row r="737" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C737" s="37"/>
     </row>
-    <row r="738" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C738" s="37"/>
     </row>
-    <row r="739" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C739" s="37"/>
     </row>
-    <row r="740" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C740" s="37"/>
     </row>
-    <row r="741" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C741" s="37"/>
     </row>
-    <row r="742" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C742" s="37"/>
     </row>
-    <row r="743" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C743" s="37"/>
     </row>
-    <row r="744" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C744" s="37"/>
     </row>
-    <row r="745" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C745" s="37"/>
     </row>
-    <row r="746" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C746" s="37"/>
     </row>
-    <row r="747" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C747" s="37"/>
     </row>
-    <row r="748" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C748" s="37"/>
     </row>
-    <row r="749" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C749" s="37"/>
     </row>
-    <row r="750" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C750" s="37"/>
     </row>
-    <row r="751" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C751" s="37"/>
     </row>
-    <row r="752" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C752" s="37"/>
     </row>
-    <row r="753" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C753" s="37"/>
     </row>
-    <row r="754" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C754" s="37"/>
     </row>
-    <row r="755" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C755" s="37"/>
     </row>
-    <row r="756" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C756" s="37"/>
     </row>
-    <row r="757" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C757" s="37"/>
     </row>
-    <row r="758" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C758" s="37"/>
     </row>
-    <row r="759" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C759" s="37"/>
     </row>
-    <row r="760" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C760" s="37"/>
     </row>
-    <row r="761" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C761" s="37"/>
     </row>
-    <row r="762" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C762" s="37"/>
     </row>
-    <row r="763" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C763" s="37"/>
     </row>
-    <row r="764" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C764" s="37"/>
     </row>
-    <row r="765" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C765" s="37"/>
     </row>
-    <row r="766" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C766" s="37"/>
     </row>
-    <row r="767" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C767" s="37"/>
     </row>
-    <row r="768" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C768" s="37"/>
     </row>
-    <row r="769" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C769" s="37"/>
     </row>
-    <row r="770" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C770" s="37"/>
     </row>
-    <row r="771" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C771" s="37"/>
     </row>
-    <row r="772" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C772" s="37"/>
     </row>
-    <row r="773" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C773" s="37"/>
     </row>
-    <row r="774" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C774" s="37"/>
     </row>
-    <row r="775" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C775" s="37"/>
     </row>
-    <row r="776" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C776" s="37"/>
     </row>
-    <row r="777" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C777" s="37"/>
     </row>
-    <row r="778" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C778" s="37"/>
     </row>
-    <row r="779" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C779" s="37"/>
     </row>
-    <row r="780" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C780" s="37"/>
     </row>
-    <row r="781" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C781" s="37"/>
     </row>
-    <row r="782" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C782" s="37"/>
     </row>
-    <row r="783" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C783" s="37"/>
     </row>
-    <row r="784" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C784" s="37"/>
     </row>
-    <row r="785" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C785" s="37"/>
     </row>
-    <row r="786" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C786" s="37"/>
     </row>
-    <row r="787" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C787" s="37"/>
     </row>
-    <row r="788" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C788" s="37"/>
     </row>
-    <row r="789" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C789" s="37"/>
     </row>
-    <row r="790" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C790" s="37"/>
     </row>
-    <row r="791" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C791" s="37"/>
     </row>
-    <row r="792" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C792" s="37"/>
     </row>
-    <row r="793" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C793" s="37"/>
     </row>
-    <row r="794" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C794" s="37"/>
     </row>
-    <row r="795" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C795" s="37"/>
     </row>
-    <row r="796" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C796" s="37"/>
     </row>
-    <row r="797" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C797" s="37"/>
     </row>
-    <row r="798" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C798" s="37"/>
     </row>
-    <row r="799" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C799" s="37"/>
     </row>
-    <row r="800" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C800" s="37"/>
     </row>
-    <row r="801" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C801" s="37"/>
     </row>
-    <row r="802" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C802" s="37"/>
     </row>
-    <row r="803" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C803" s="37"/>
     </row>
-    <row r="804" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C804" s="37"/>
     </row>
-    <row r="805" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C805" s="37"/>
     </row>
-    <row r="806" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C806" s="37"/>
     </row>
-    <row r="807" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C807" s="37"/>
     </row>
-    <row r="808" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C808" s="37"/>
     </row>
-    <row r="809" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C809" s="37"/>
     </row>
-    <row r="810" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C810" s="37"/>
     </row>
-    <row r="811" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C811" s="37"/>
     </row>
-    <row r="812" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C812" s="37"/>
     </row>
-    <row r="813" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C813" s="37"/>
     </row>
-    <row r="814" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C814" s="37"/>
     </row>
-    <row r="815" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C815" s="37"/>
     </row>
-    <row r="816" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C816" s="37"/>
     </row>
-    <row r="817" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C817" s="37"/>
     </row>
-    <row r="818" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C818" s="37"/>
     </row>
-    <row r="819" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C819" s="37"/>
     </row>
-    <row r="820" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C820" s="37"/>
     </row>
-    <row r="821" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C821" s="37"/>
     </row>
-    <row r="822" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C822" s="37"/>
     </row>
-    <row r="823" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C823" s="37"/>
     </row>
-    <row r="824" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C824" s="37"/>
     </row>
-    <row r="825" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C825" s="37"/>
     </row>
-    <row r="826" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C826" s="37"/>
     </row>
-    <row r="827" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C827" s="37"/>
     </row>
-    <row r="828" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C828" s="37"/>
     </row>
-    <row r="829" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C829" s="37"/>
     </row>
-    <row r="830" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C830" s="37"/>
     </row>
-    <row r="831" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C831" s="37"/>
     </row>
-    <row r="832" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C832" s="37"/>
     </row>
-    <row r="833" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C833" s="37"/>
     </row>
-    <row r="834" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C834" s="37"/>
     </row>
-    <row r="835" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C835" s="37"/>
     </row>
-    <row r="836" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C836" s="37"/>
     </row>
-    <row r="837" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C837" s="37"/>
     </row>
-    <row r="838" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C838" s="37"/>
     </row>
-    <row r="839" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C839" s="37"/>
     </row>
-    <row r="840" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C840" s="37"/>
     </row>
-    <row r="841" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C841" s="37"/>
     </row>
-    <row r="842" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C842" s="37"/>
     </row>
-    <row r="843" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C843" s="37"/>
     </row>
-    <row r="844" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C844" s="37"/>
     </row>
-    <row r="845" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C845" s="37"/>
     </row>
-    <row r="846" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C846" s="37"/>
     </row>
-    <row r="847" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C847" s="37"/>
     </row>
-    <row r="848" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C848" s="37"/>
     </row>
-    <row r="849" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C849" s="37"/>
     </row>
-    <row r="850" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C850" s="37"/>
     </row>
-    <row r="851" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C851" s="37"/>
     </row>
-    <row r="852" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C852" s="37"/>
     </row>
-    <row r="853" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C853" s="37"/>
     </row>
-    <row r="854" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C854" s="37"/>
     </row>
-    <row r="855" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C855" s="37"/>
     </row>
-    <row r="856" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C856" s="37"/>
     </row>
-    <row r="857" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C857" s="37"/>
     </row>
-    <row r="858" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C858" s="37"/>
     </row>
-    <row r="859" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C859" s="37"/>
     </row>
-    <row r="860" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C860" s="37"/>
     </row>
-    <row r="861" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C861" s="37"/>
     </row>
-    <row r="862" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C862" s="37"/>
     </row>
-    <row r="863" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C863" s="37"/>
     </row>
-    <row r="864" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C864" s="37"/>
     </row>
-    <row r="865" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C865" s="37"/>
     </row>
-    <row r="866" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C866" s="37"/>
     </row>
-    <row r="867" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C867" s="37"/>
     </row>
-    <row r="868" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C868" s="37"/>
     </row>
-    <row r="869" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C869" s="37"/>
     </row>
-    <row r="870" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C870" s="37"/>
     </row>
-    <row r="871" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C871" s="37"/>
     </row>
-    <row r="872" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C872" s="37"/>
     </row>
-    <row r="873" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C873" s="37"/>
     </row>
-    <row r="874" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C874" s="37"/>
     </row>
-    <row r="875" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C875" s="37"/>
     </row>
-    <row r="876" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C876" s="37"/>
     </row>
-    <row r="877" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C877" s="37"/>
     </row>
-    <row r="878" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C878" s="37"/>
     </row>
-    <row r="879" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C879" s="37"/>
     </row>
-    <row r="880" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C880" s="37"/>
     </row>
-    <row r="881" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C881" s="37"/>
     </row>
-    <row r="882" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C882" s="37"/>
     </row>
-    <row r="883" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C883" s="37"/>
     </row>
-    <row r="884" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C884" s="37"/>
     </row>
-    <row r="885" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C885" s="37"/>
     </row>
-    <row r="886" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C886" s="37"/>
     </row>
-    <row r="887" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C887" s="37"/>
     </row>
-    <row r="888" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C888" s="37"/>
     </row>
-    <row r="889" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C889" s="37"/>
     </row>
-    <row r="890" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C890" s="37"/>
     </row>
-    <row r="891" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C891" s="37"/>
     </row>
-    <row r="892" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C892" s="37"/>
     </row>
-    <row r="893" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C893" s="37"/>
     </row>
-    <row r="894" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C894" s="37"/>
     </row>
-    <row r="895" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C895" s="37"/>
     </row>
-    <row r="896" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C896" s="37"/>
     </row>
-    <row r="897" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C897" s="37"/>
     </row>
-    <row r="898" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C898" s="37"/>
     </row>
-    <row r="899" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C899" s="37"/>
     </row>
-    <row r="900" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C900" s="37"/>
     </row>
-    <row r="901" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C901" s="37"/>
     </row>
-    <row r="902" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C902" s="37"/>
     </row>
-    <row r="903" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C903" s="37"/>
     </row>
-    <row r="904" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C904" s="37"/>
     </row>
-    <row r="905" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C905" s="37"/>
     </row>
-    <row r="906" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C906" s="37"/>
     </row>
-    <row r="907" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C907" s="37"/>
     </row>
-    <row r="908" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C908" s="37"/>
     </row>
-    <row r="909" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C909" s="37"/>
     </row>
-    <row r="910" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C910" s="37"/>
     </row>
-    <row r="911" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C911" s="37"/>
     </row>
-    <row r="912" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C912" s="37"/>
     </row>
-    <row r="913" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C913" s="37"/>
     </row>
-    <row r="914" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C914" s="37"/>
     </row>
-    <row r="915" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C915" s="37"/>
     </row>
-    <row r="916" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C916" s="37"/>
     </row>
-    <row r="917" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C917" s="37"/>
     </row>
-    <row r="918" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C918" s="37"/>
     </row>
-    <row r="919" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C919" s="37"/>
     </row>
-    <row r="920" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C920" s="37"/>
     </row>
-    <row r="921" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C921" s="37"/>
     </row>
-    <row r="922" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C922" s="37"/>
     </row>
-    <row r="923" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C923" s="37"/>
     </row>
-    <row r="924" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C924" s="37"/>
     </row>
-    <row r="925" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C925" s="37"/>
     </row>
-    <row r="926" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C926" s="37"/>
     </row>
-    <row r="927" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C927" s="37"/>
     </row>
-    <row r="928" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C928" s="37"/>
     </row>
-    <row r="929" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C929" s="37"/>
     </row>
-    <row r="930" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C930" s="37"/>
     </row>
-    <row r="931" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C931" s="37"/>
     </row>
-    <row r="932" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C932" s="37"/>
     </row>
-    <row r="933" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C933" s="37"/>
     </row>
-    <row r="934" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C934" s="37"/>
     </row>
-    <row r="935" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C935" s="37"/>
     </row>
-    <row r="936" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C936" s="37"/>
     </row>
-    <row r="937" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C937" s="37"/>
     </row>
-    <row r="938" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C938" s="37"/>
     </row>
-    <row r="939" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C939" s="37"/>
     </row>
-    <row r="940" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C940" s="37"/>
     </row>
-    <row r="941" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C941" s="37"/>
     </row>
-    <row r="942" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C942" s="37"/>
     </row>
-    <row r="943" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C943" s="37"/>
     </row>
-    <row r="944" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C944" s="37"/>
     </row>
-    <row r="945" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C945" s="37"/>
     </row>
-    <row r="946" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C946" s="37"/>
     </row>
-    <row r="947" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C947" s="37"/>
     </row>
-    <row r="948" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C948" s="37"/>
     </row>
-    <row r="949" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C949" s="37"/>
     </row>
-    <row r="950" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C950" s="37"/>
     </row>
-    <row r="951" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C951" s="37"/>
     </row>
-    <row r="952" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C952" s="37"/>
     </row>
-    <row r="953" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C953" s="37"/>
     </row>
-    <row r="954" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C954" s="37"/>
     </row>
-    <row r="955" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C955" s="37"/>
     </row>
-    <row r="956" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C956" s="37"/>
     </row>
-    <row r="957" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C957" s="37"/>
     </row>
-    <row r="958" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C958" s="37"/>
     </row>
-    <row r="959" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C959" s="37"/>
     </row>
-    <row r="960" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C960" s="37"/>
     </row>
-    <row r="961" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C961" s="37"/>
     </row>
-    <row r="962" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C962" s="37"/>
     </row>
-    <row r="963" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C963" s="37"/>
     </row>
-    <row r="964" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C964" s="37"/>
     </row>
-    <row r="965" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C965" s="37"/>
     </row>
-    <row r="966" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C966" s="37"/>
     </row>
-    <row r="967" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C967" s="37"/>
     </row>
-    <row r="968" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C968" s="37"/>
     </row>
-    <row r="969" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C969" s="37"/>
     </row>
-    <row r="970" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C970" s="37"/>
     </row>
-    <row r="971" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C971" s="37"/>
     </row>
-    <row r="972" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C972" s="37"/>
     </row>
-    <row r="973" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C973" s="37"/>
     </row>
-    <row r="974" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C974" s="37"/>
     </row>
-    <row r="975" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C975" s="37"/>
     </row>
-    <row r="976" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C976" s="37"/>
     </row>
-    <row r="977" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C977" s="37"/>
     </row>
-    <row r="978" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C978" s="37"/>
     </row>
-    <row r="979" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C979" s="37"/>
     </row>
-    <row r="980" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C980" s="37"/>
     </row>
-    <row r="981" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C981" s="37"/>
     </row>
-    <row r="982" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C982" s="37"/>
     </row>
-    <row r="983" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C983" s="37"/>
     </row>
-    <row r="984" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C984" s="37"/>
     </row>
-    <row r="985" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C985" s="37"/>
     </row>
-    <row r="986" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C986" s="37"/>
     </row>
-    <row r="987" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C987" s="37"/>
     </row>
-    <row r="988" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C988" s="37"/>
     </row>
-    <row r="989" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C989" s="37"/>
     </row>
-    <row r="990" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C990" s="37"/>
     </row>
-    <row r="991" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C991" s="37"/>
     </row>
-    <row r="992" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C992" s="37"/>
     </row>
-    <row r="993" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C993" s="37"/>
     </row>
-    <row r="994" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C994" s="37"/>
     </row>
-    <row r="995" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C995" s="37"/>
     </row>
-    <row r="996" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C996" s="37"/>
     </row>
-    <row r="997" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C997" s="37"/>
     </row>
-    <row r="998" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C998" s="37"/>
     </row>
-    <row r="999" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C999" s="37"/>
     </row>
-    <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1000" s="37"/>
     </row>
   </sheetData>
